--- a/combined/Wisata.xlsx
+++ b/combined/Wisata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K227"/>
+  <dimension ref="A1:J227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Wisata+Bantul/@-7.8056036,110.2400464,11z/data=!4m2!2m1!6e1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -522,25 +516,24 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.4</v>
+        <v>-7.865897</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.865897</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.322449</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Puspa+Gading+Tegaldowo+Bantul+Yogyakarta/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af9a976fbdd71:0x6d10233acd954cc0!8m2!3d-7.8658973!4d110.3224493!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11h764h225?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Puspa+Gading+Tegaldowo+Bantul+Yogyakarta/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af9a976fbdd71:0x6d10233acd954cc0!8m2!3d-7.8658973!4d110.3224493!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11h764h225?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -563,25 +556,24 @@
           <t>0877-3911-2399</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F4" t="n">
-        <v>3.9</v>
+        <v>-7.886054</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.886054</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.292266</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sendang+Ngembel/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7aff2db46a0d3b:0xd0f70d152de2869e!8m2!3d-7.8860543!4d110.2922656!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXlhemQ2TTNOM1JSQULgAQD6AQQIABBH!16s%2Fg%2F11b6_c877c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -596,25 +588,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.2</v>
+        <v>-7.867542</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.867542</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.286757</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Curug+Banyunibo/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af8dfd6c6b72b:0x3aa1b92f3cb5ac42!8m2!3d-7.8675423!4d110.2867568!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVlVmxQY201blJSQULgAQD6AQUIvgEQQQ!16s%2Fg%2F1q5gsj2tt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Curug+Banyunibo/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af8dfd6c6b72b:0x3aa1b92f3cb5ac42!8m2!3d-7.8675423!4d110.2867568!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVlVmxQY201blJSQULgAQD6AQUIvgEQQQ!16s%2Fg%2F1q5gsj2tt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -633,25 +624,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>-7.860962</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.860962</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.28709</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jurang+Pulosari/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af8e091ad99b5:0x39778d3ee07cd0b7!8m2!3d-7.8609616!4d110.2870897!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUldMVmxMZVU5bkVBReABAPoBBAgAECM!16s%2Fg%2F11b6_nq6mj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jurang+Pulosari/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af8e091ad99b5:0x39778d3ee07cd0b7!8m2!3d-7.8609616!4d110.2870897!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUldMVmxMZVU5bkVBReABAPoBBAgAECM!16s%2Fg%2F11b6_nq6mj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -670,25 +660,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>-7.904576</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.904576</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.381047</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Watu+Ngelak/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a544c8cf37e8d:0xb8e3904dcc7e1afa!8m2!3d-7.904576!4d110.3810468!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySAQRwYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU54TW5SNmNuUjNSUkFC4AEA-gEECAAQMA!16s%2Fg%2F1yprv1lc6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -711,25 +700,24 @@
           <t>0831-9566-6849</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>-7.927409</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.927409</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.412059</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Watu+Goyang/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a548fd0091f07:0xf2e5878e2fc74574!8m2!3d-7.9274086!4d110.4120586!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11c31tj_lg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Watu+Goyang/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a548fd0091f07:0xf2e5878e2fc74574!8m2!3d-7.9274086!4d110.4120586!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11c31tj_lg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -756,25 +744,24 @@
           <t>0895-3631-71116</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>-7.845536</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.845536</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.337957</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Desa+Wisata+Gerabah+Kasongan+Yogyakarta/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a562ec443e609:0xdd8f6df4e1b97dfc!8m2!3d-7.8455358!4d110.3379568!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11hbprbclw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Desa+Wisata+Gerabah+Kasongan+Yogyakarta/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a562ec443e609:0xdd8f6df4e1b97dfc!8m2!3d-7.8455358!4d110.3379568!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11hbprbclw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -801,25 +788,24 @@
           <t>0856-4042-3376</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.4</v>
+        <v>-7.854557</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.854557</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.327063</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Desa+Wisata+Jipangan/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af89e80e7d611:0x8a2aa02991380880!8m2!3d-7.854557!4d110.3270628!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjJkMDAzUlRsQlJSQULgAQD6AQQIABAd!16s%2Fg%2F11c6vgz8b0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Desa+Wisata+Jipangan/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af89e80e7d611:0x8a2aa02991380880!8m2!3d-7.854557!4d110.3270628!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjJkMDAzUlRsQlJSQULgAQD6AQQIABAd!16s%2Fg%2F11c6vgz8b0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -838,25 +824,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>-7.868528</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.868528</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.322138</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dewi+Gumi+(Gunung+Mijil)+Petilasan+Pangeran+Diponegoro/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af97136b8a66d:0xe4f532b6bc21314d!8m2!3d-7.8685284!4d110.3221375!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjVhSEkzVDFoM0VBReABAPoBBAgAEEg!16s%2Fg%2F11j01z00cx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -871,25 +856,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>-7.829826</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.829826</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.329439</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sendang+Kasihan/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af87155555555:0xce1e35815c3b75aa!8m2!3d-7.829826!4d110.3294388!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJRTkhGdVlUVjNSUkFC4AEA-gEECAAQPg!16s%2Fg%2F1pzvhytqy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -904,25 +888,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>-7.861964</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.861964</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.314867</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Goa+Selarong/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af8bdbea8306f:0x19e7e1da633bcbb1!8m2!3d-7.8619643!4d110.314867!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySAQ9uYXR1cmVfcHJlc2VydmXgAQA!16s%2Fg%2F122t191y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Goa+Selarong/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af8bdbea8306f:0x19e7e1da633bcbb1!8m2!3d-7.8619643!4d110.314867!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySAQ9uYXR1cmVfcHJlc2VydmXgAQA!16s%2Fg%2F122t191y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -949,25 +932,24 @@
           <t>0889-5963-643</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>-7.937673</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.937673</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.381942</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Karangtengah/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a54f779dfd8a3:0x1c94c6d568a2b581!8m2!3d-7.9376732!4d110.3819417!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlBNM0pYZFZobkVBReABAPoBBAgAEEk!16s%2Fg%2F1pzqybr71?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -982,25 +964,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>-7.906898</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.906898</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.276636</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Mangir/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7afee6cfb26e29:0x34c25d179c2618cd!8m2!3d-7.9068983!4d110.2766362!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySAQZtdXNldW2aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnVNMTlJZW5CM1JSQULgAQD6AQQIABA1!16s%2Fg%2F11c32fdgwm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1015,25 +996,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.6</v>
+        <v>-7.904907</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.904907</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.38962</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bukit+Watu+Gagak/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a55e3c20d75ff:0xe32b23e43defd2e5!8m2!3d-7.9049069!4d110.3896199!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTndkVTFVTWtSQkVBReABAPoBBAgAEEU!16s%2Fg%2F11fqzn4157?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bukit+Watu+Gagak/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a55e3c20d75ff:0xe32b23e43defd2e5!8m2!3d-7.9049069!4d110.3896199!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTndkVTFVTWtSQkVBReABAPoBBAgAEEU!16s%2Fg%2F11fqzn4157?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1056,25 +1036,24 @@
           <t>0882-2520-8880</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.9</v>
+        <v>-7.897623</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.897623</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.309082</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Kajii+(Dewi+Kajii+-+Edukasi+Ikan+Hias)/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7aff55db42a7e5:0xb31e373fc1e28cad!8m2!3d-7.8976233!4d110.3090821!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUldaMlZFU0ZaM0VBReABAPoBBAhKEEM!16s%2Fg%2F11lg01qnrk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1093,25 +1072,24 @@
           <t>0857-2918-5771</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.7</v>
+        <v>-7.892837</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.892837</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.302484</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Kampung+Santan/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7aff08f7ef2a2b:0x6360343940ff64a7!8m2!3d-7.8928375!4d110.3024844!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVjMXBmTVhsblJSQULgAQD6AQQIABA5!16s%2Fg%2F11gk8k8k5p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1130,25 +1108,24 @@
           <t>0857-2918-5771</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.7</v>
+        <v>-7.930867</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.930867</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.430857</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Seribu+Batu+Songgo+Langit/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a531be5da247f:0x51f131c4dc279d01!8m2!3d-7.9308668!4d110.4308565!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11gy4zj9hw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Seribu+Batu+Songgo+Langit/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a531be5da247f:0x51f131c4dc279d01!8m2!3d-7.9308668!4d110.4308565!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11gy4zj9hw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1171,25 +1148,24 @@
           <t>0877-3960-1917</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.6</v>
+        <v>-7.932493</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.932493</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.368461</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Kebonagung+Imogiri/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a551b479e339b:0x273dfe1a78d3b4d5!8m2!3d-7.9324935!4d110.3684608!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlNaMkl5YkdkUlJSQULgAQD6AQQIABA1!16s%2Fg%2F11bc7tg5vq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1208,25 +1184,24 @@
           <t>0819-3170-1974</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.3</v>
+        <v>-7.963269</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.963269</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.384258</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kedung+Tolok/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7bab2b8ff70283:0xbcbe4210c9c5f568!8m2!3d-7.9632695!4d110.3842578!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVkRFJQWkhKM1JSQULgAQD6AQQIWRA6!16s%2Fg%2F11b7ty4hsv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kedung+Tolok/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7bab2b8ff70283:0xbcbe4210c9c5f568!8m2!3d-7.9632695!4d110.3842578!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVkRFJQWkhKM1JSQULgAQD6AQQIWRA6!16s%2Fg%2F11b7ty4hsv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1253,25 +1228,24 @@
           <t>0818-268-151</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.4</v>
+        <v>-7.874923</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.874923</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.422109</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puncak+Gebang/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a56aa6dfded51:0x9899761d1890058c!8m2!3d-7.8749233!4d110.4221094!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARBuYXRpb25hbF9yZXNlcnZlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJmYVRSUE5uWjNSUkFC4AEA-gEECAAQNQ!16s%2Fg%2F11cnc48syp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puncak+Gebang/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a56aa6dfded51:0x9899761d1890058c!8m2!3d-7.8749233!4d110.4221094!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARBuYXRpb25hbF9yZXNlcnZlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJmYVRSUE5uWjNSUkFC4AEA-gEECAAQNQ!16s%2Fg%2F11cnc48syp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1294,25 +1268,24 @@
           <t>0856-4303-4514</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.2</v>
+        <v>-7.932992</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.932992</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.255069</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Lopati/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a55fec2aaf183:0xd810275298135dd8!8m2!3d-7.9329922!4d110.2550693!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkdaelZIYUVkUkVBReABAPoBBAgAEEY!16s%2Fg%2F1pzs3hzh2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1335,25 +1308,24 @@
           <t>0823-2905-5550</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>-7.902035</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.902035</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.437463</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puncak+Pinus+Becici/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a531aaaaaaaab:0x6c28149b91ea59f4!8m2!3d-7.9020355!4d110.4374627!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARBuYXRpb25hbF9yZXNlcnZlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5LY25WaFNIWjNSUkFC4AEA-gEECAAQQg!16s%2Fg%2F11h2g21vfv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puncak+Pinus+Becici/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a531aaaaaaaab:0x6c28149b91ea59f4!8m2!3d-7.9020355!4d110.4374627!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARBuYXRpb25hbF9yZXNlcnZlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5LY25WaFNIWjNSUkFC4AEA-gEECAAQQg!16s%2Fg%2F11h2g21vfv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>9 jam lalu</t>
         </is>
@@ -1372,25 +1344,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.6</v>
+        <v>-7.926107</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.926107</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.430465</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hutan+Pinus+Mangunan/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a536355abb129:0x9fb567811ef62e4e!8m2!3d-7.9261073!4d110.4304652!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARFyZWNyZWF0aW9uX2NlbnRlcuABAA!16s%2Fg%2F11g9w4r_1f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hutan+Pinus+Mangunan/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a536355abb129:0x9fb567811ef62e4e!8m2!3d-7.9261073!4d110.4304652!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARFyZWNyZWF0aW9uX2NlbnRlcuABAA!16s%2Fg%2F11g9w4r_1f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>10 jam lalu</t>
         </is>
@@ -1417,25 +1388,24 @@
           <t>0818-629-901</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.6</v>
+        <v>-8.028155999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.028155999999999</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.638331</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Goa+Jomblang/@-7.8433997,110.3828989,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb41fce34d717:0xf9ffcb6f9fbd5cce!8m2!3d-8.0281562!4d110.6383307!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b6nqqqkj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1450,25 +1420,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.6</v>
+        <v>-7.881011</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.881011</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.488578</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gunung+Ireng/@-7.8810109,110.2001872,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a523b341b1103:0xb83c0f106770ecfe!8m2!3d-7.8810109!4d110.4885783!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b62v7fyn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1491,25 +1460,24 @@
           <t>0818-0260-6050</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.6</v>
+        <v>-7.84276</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.84276</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.537973</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kawasan+Ekowisata+Gunung+Api+Purba+Nglanggeran/@-7.8810109,110.2001872,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a51efde7a9e5f:0x64aa1bf07f3811d8!8m2!3d-7.84276!4d110.5379729!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F1pzq9f6n6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kawasan+Ekowisata+Gunung+Api+Purba+Nglanggeran/@-7.8810109,110.2001872,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a51efde7a9e5f:0x64aa1bf07f3811d8!8m2!3d-7.84276!4d110.5379729!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F1pzq9f6n6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1532,25 +1500,24 @@
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.5</v>
+        <v>-7.84714</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.84714</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.546859</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Embung+Nglanggeran/@-7.8810109,110.2001872,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4e40416ef711:0x5e15a88116b3577e!8m2!3d-7.8471399!4d110.5468589!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11c1v_wcs_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Embung+Nglanggeran/@-7.8810109,110.2001872,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4e40416ef711:0x5e15a88116b3577e!8m2!3d-7.8471399!4d110.5468589!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11c1v_wcs_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1573,25 +1540,24 @@
           <t>0813-2870-9006</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.4</v>
+        <v>-8.101746</v>
       </c>
       <c r="G30" t="n">
-        <v>-8.101746</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.455602</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puncak+Segoro/@-7.8810109,110.2001872,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf1820244d67:0x3a6ddd1cebd7df2b!8m2!3d-8.1017457!4d110.4556016!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11hz7dl1c4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puncak+Segoro/@-7.8810109,110.2001872,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf1820244d67:0x3a6ddd1cebd7df2b!8m2!3d-8.1017457!4d110.4556016!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11hz7dl1c4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>11 jam lalu</t>
         </is>
@@ -1610,25 +1576,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.5</v>
+        <v>-8.175927</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.175927</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.66242</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pantai+Timang/@-8.1759266,110.3740285,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb36265782cf3:0x25efcb5e3a28afa8!8m2!3d-8.1759266!4d110.6624196!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fm%2F010hqb15?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1647,25 +1612,24 @@
           <t>0895-3590-28665</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.4</v>
+        <v>-7.974312</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.974312</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.436438</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Geoforest+Watu+Payung+Turunan/@-7.9743125,110.1480464,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bac8c00000001:0x963f619d5a0fdba0!8m2!3d-7.9743125!4d110.4364375!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11cjkmq7s2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Geoforest+Watu+Payung+Turunan/@-7.9743125,110.1480464,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bac8c00000001:0x963f619d5a0fdba0!8m2!3d-7.9743125!4d110.4364375!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11cjkmq7s2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1688,25 +1652,24 @@
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>-7.851437</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.851437</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.535438</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisata+Kedung+Kandang/@-7.9743125,110.1480464,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4e17a43a3ec3:0x24574205a545c5fa!8m2!3d-7.8514375!4d110.5354375!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11cn7krkk_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisata+Kedung+Kandang/@-7.9743125,110.1480464,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4e17a43a3ec3:0x24574205a545c5fa!8m2!3d-7.8514375!4d110.5354375!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11cn7krkk_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>8 jam lalu</t>
         </is>
@@ -1729,25 +1692,24 @@
           <t>0857-4395-7979</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.3</v>
+        <v>-7.949684</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.949684</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.492796</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisata+Air+Terjun+Sri+Gethuk/@-7.9743125,110.1480464,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a53a2b9d85c7b:0x7b2a1b088fb5ca7c!8m2!3d-7.9496844!4d110.4927964!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11p0vcx44l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1766,25 +1728,24 @@
           <t>0857-4395-7979</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.3</v>
+        <v>-7.94946</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.94946</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.492726</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Goa+Rancang+Kencono/@-7.9743125,110.1480464,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a52cb7e44f3d9:0xd5a8cbc5324693be!8m2!3d-7.9494598!4d110.4927262!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11b67p2d6_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Goa+Rancang+Kencono/@-7.9743125,110.1480464,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a52cb7e44f3d9:0xd5a8cbc5324693be!8m2!3d-7.9494598!4d110.4927262!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11b67p2d6_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1803,25 +1764,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.4</v>
+        <v>-8.108578</v>
       </c>
       <c r="G36" t="n">
-        <v>-8.108578</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.467937</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Gesing/@-7.9743125,110.1480464,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf7729055893:0xfaf1f0102bac9342!8m2!3d-8.1085778!4d110.4679367!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F1pzx97hv2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Gesing/@-7.9743125,110.1480464,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf7729055893:0xfaf1f0102bac9342!8m2!3d-8.1085778!4d110.4679367!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F1pzx97hv2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>15 jam lalu</t>
         </is>
@@ -1840,25 +1800,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.3</v>
+        <v>-7.856324</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.856324</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.499117</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Bunga+Amarilis+Gunungkidul/@-7.9743125,110.1480464,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a51eb58eaa605:0x8a7aa7d6b3f82ce1!8m2!3d-7.8563245!4d110.4991167!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11cjhyk5h5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Bunga+Amarilis+Gunungkidul/@-7.9743125,110.1480464,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a51eb58eaa605:0x8a7aa7d6b3f82ce1!8m2!3d-7.8563245!4d110.4991167!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11cjhyk5h5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1877,25 +1836,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.2</v>
+        <v>-7.997056</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.997056</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.628646</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Watu+Giring/@-7.9970558,110.3402551,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb47ad23822d5:0x1a452187b5097d03!8m2!3d-7.9970558!4d110.6286462!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11cnc0m0tt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1910,25 +1868,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.5</v>
+        <v>-7.832111</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.832111</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.633017</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Embung+Batara+Sriten/@-7.9970558,110.3402551,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4be555555555:0x404cf863f23e1aaa!8m2!3d-7.8321113!4d110.633017!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b76jmvds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Embung+Batara+Sriten/@-7.9970558,110.3402551,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4be555555555:0x404cf863f23e1aaa!8m2!3d-7.8321113!4d110.633017!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b76jmvds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1947,25 +1904,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.3</v>
+        <v>-7.837857</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.837857</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.489053</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/De+Mangol/@-7.8378573,110.2006623,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a51b1094028d7:0xb6bca4c4d92744ed!8m2!3d-7.8378573!4d110.4890534!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11bzyx1vxt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/De+Mangol/@-7.8378573,110.2006623,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a51b1094028d7:0xb6bca4c4d92744ed!8m2!3d-7.8378573!4d110.4890534!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11bzyx1vxt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1984,25 +1940,24 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.7</v>
+        <v>-8.145102</v>
       </c>
       <c r="G41" t="n">
-        <v>-8.145102</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.598801</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Krakal/@-8.1451024,110.3104095,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bba938e770d49:0x1a0648b6176c58d5!8m2!3d-8.1451024!4d110.5988006!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11c5zv50tt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Krakal/@-8.1451024,110.3104095,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bba938e770d49:0x1a0648b6176c58d5!8m2!3d-8.1451024!4d110.5988006!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11c5zv50tt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>5 jam lalu</t>
         </is>
@@ -2025,25 +1980,24 @@
           <t>0813-4604-2677</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.7</v>
+        <v>-7.841031</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.841031</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.670352</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisata+Watu+Gendong/@-7.8410315,110.3819604,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a491b97f5daa7:0xbd5db36546d8a306!8m2!3d-7.8410315!4d110.6703515!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11h7v5byp1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2062,25 +2016,24 @@
           <t>0859-1385-71315</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.6</v>
+        <v>-8.141116</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.141116</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.584068</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puncak+Kosakora/@-8.1411158,110.2956769,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bba44603f79d1:0xd59af916e203a920!8m2!3d-8.1411158!4d110.584068!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11c0r32h50?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puncak+Kosakora/@-8.1411158,110.2956769,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bba44603f79d1:0xd59af916e203a920!8m2!3d-8.1411158!4d110.584068!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11c0r32h50?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2103,25 +2056,24 @@
           <t>0818-0276-2944</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.2</v>
+        <v>-7.893576</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.893576</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.657391</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisata+Klayar/@-7.893576,110.3689998,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4bb1ea1608c3:0x3a6a2d052497008d!8m2!3d-7.893576!4d110.6573909!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11b6qlqft9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2140,25 +2092,24 @@
           <t>0818-0276-2944</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.2</v>
+        <v>-7.821208</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.821208</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.67158</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gunung+Gambar/@-7.893576,110.3689998,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a485354e4c971:0xf2b2aa6c162aa48a!8m2!3d-7.8212079!4d110.67158!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11b700k5xm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2181,25 +2132,24 @@
           <t>0858-7655-2513</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.7</v>
+        <v>-7.972324</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.972324</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.434871</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Stone+Park+Turunan+Panggang+Gunungkidul/@-7.9723235,110.1464795,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baca37f7818d1:0x17fd33166b4f1bb5!8m2!3d-7.9723235!4d110.4348706!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJLZWsxeWVVSlJFQUXgAQD6AQQIABAn!16s%2Fg%2F11dzsy19h7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Stone+Park+Turunan+Panggang+Gunungkidul/@-7.9723235,110.1464795,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baca37f7818d1:0x17fd33166b4f1bb5!8m2!3d-7.9723235!4d110.4348706!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJLZWsxeWVVSlJFQUXgAQD6AQQIABAn!16s%2Fg%2F11dzsy19h7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2222,25 +2172,24 @@
           <t>0877-3619-5079</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.5</v>
+        <v>-7.958327</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.958327</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.561079</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lembah+Desa+Pulutan/@-7.9723235,110.1464795,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb3af12033a93:0x7e81e2f975cb054c!8m2!3d-7.9583267!4d110.5610787!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5DYm1GcFkxbFJFQUXgAQD6AQUIrAEQRw!16s%2Fg%2F11h75j4_0q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lembah+Desa+Pulutan/@-7.9723235,110.1464795,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb3af12033a93:0x7e81e2f975cb054c!8m2!3d-7.9583267!4d110.5610787!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5DYm1GcFkxbFJFQUXgAQD6AQUIrAEQRw!16s%2Fg%2F11h75j4_0q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2263,25 +2212,24 @@
           <t>0852-2886-8024</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.1</v>
+        <v>-7.813094</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.813094</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.615571</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Green+Village+Gedangsari/@-7.813094,110.3271799,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4f32bf83986b:0x89cfc63831ddf2a3!8m2!3d-7.813094!4d110.615571!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b8zzjrn2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Green+Village+Gedangsari/@-7.813094,110.3271799,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4f32bf83986b:0x89cfc63831ddf2a3!8m2!3d-7.813094!4d110.615571!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b8zzjrn2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2304,25 +2252,24 @@
           <t>0812-3344-8050</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
       <c r="F49" t="n">
-        <v>4</v>
+        <v>-7.809018</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.809018</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.572748</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Air+Terjun+Luweng+Sampang/@-7.813094,110.3271799,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a57876d285fc7:0xcca955bfd64b840d!8m2!3d-7.8090182!4d110.5727475!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b6tssxwr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2337,25 +2284,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.7</v>
+        <v>-8.154972000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>-8.154972000000001</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.621496</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pantai+Pok+Tunggal/@-8.1549718,110.3331047,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb9cc12dddcdd:0x1c3d8c501915b7ce!8m2!3d-8.1549718!4d110.6214958!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJPYlV4bWNqUlJSUkFC4AEA-gEECAAQPQ!16s%2Fg%2F11h2g1y310?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2370,25 +2316,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.7</v>
+        <v>-8.136983000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>-8.136983000000001</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.574152</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Watu+Kodok/@-8.1549718,110.3331047,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbbcfd6c5a261:0xe7b408d28d5cd6c7!8m2!3d-8.1369832!4d110.5741515!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11h_5w031_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Watu+Kodok/@-8.1549718,110.3331047,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbbcfd6c5a261:0xe7b408d28d5cd6c7!8m2!3d-8.1369832!4d110.5741515!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11h_5w031_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>18 jam lalu</t>
         </is>
@@ -2411,25 +2356,24 @@
           <t>0813-9783-2261</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.4</v>
+        <v>-8.011692</v>
       </c>
       <c r="G52" t="n">
-        <v>-8.011692</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.624701</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Telaga+Jonge/@-8.1549718,110.3331047,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb40ce6984933:0x544d6920186371a9!8m2!3d-8.0116925!4d110.6247014!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5YZUVreWRrbDNFQUXgAQD6AQQIABBJ!16s%2Fg%2F11x7vmk7j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Telaga+Jonge/@-8.1549718,110.3331047,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb40ce6984933:0x544d6920186371a9!8m2!3d-8.0116925!4d110.6247014!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5YZUVreWRrbDNFQUXgAQD6AQQIABBJ!16s%2Fg%2F11x7vmk7j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -2452,25 +2396,24 @@
           <t>0818-0421-4124</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.1</v>
+        <v>-7.824368</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.824368</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.536515</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisata+Alam+Curug+Gedhe/@-7.8243683,110.248124,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4fcc2de96709:0x83abe8cb33f739b5!8m2!3d-7.8243683!4d110.5365151!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5TY0UxMlR6bEJSUkFC4AEA-gEECAAQPg!16s%2Fg%2F11ckvfb744?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisata+Alam+Curug+Gedhe/@-7.8243683,110.248124,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4fcc2de96709:0x83abe8cb33f739b5!8m2!3d-7.8243683!4d110.5365151!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5TY0UxMlR6bEJSUkFC4AEA-gEECAAQPg!16s%2Fg%2F11ckvfb744?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2489,25 +2432,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.6</v>
+        <v>-7.864523</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.864523</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.547613</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Desa+Wisata+Bobung/@-7.8243683,110.248124,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4f7f988edb3b:0x11510b9728e8b23c!8m2!3d-7.8645226!4d110.5476127!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5hY3pacFdWRkJFQUXgAQD6AQQIABA1!16s%2Fg%2F11rq1321bt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Desa+Wisata+Bobung/@-7.8243683,110.248124,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4f7f988edb3b:0x11510b9728e8b23c!8m2!3d-7.8645226!4d110.5476127!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5hY3pacFdWRkJFQUXgAQD6AQQIABA1!16s%2Fg%2F11rq1321bt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2530,25 +2472,24 @@
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.5</v>
+        <v>-7.845841</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.845841</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.479846</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bukit+Bintang/@-7.8243683,110.248124,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a51a418acd7d3:0xfb055b6604992f0a!8m2!3d-7.8458407!4d110.4798457!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgELc2NlbmljX3Nwb3TgAQA!16s%2Fg%2F1pv61n1m9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bukit+Bintang/@-7.8243683,110.248124,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a51a418acd7d3:0xfb055b6604992f0a!8m2!3d-7.8458407!4d110.4798457!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgELc2NlbmljX3Nwb3TgAQA!16s%2Fg%2F1pv61n1m9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>4 jam lalu</t>
         </is>
@@ -2571,25 +2512,24 @@
           <t>0812-3918-2744</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.7</v>
+        <v>-8.098882</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.098882</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.440563</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PANTAI+WOHKUDU/@-8.0988822,110.1521716,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bafbfd35c9d01:0x7bea2670b20935a7!8m2!3d-8.0988822!4d110.4405627!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVF5TlVsWWQwWm5FQUXgAQD6AQQIABA4!16s%2Fg%2F11rd3gp10k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PANTAI+WOHKUDU/@-8.0988822,110.1521716,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bafbfd35c9d01:0x7bea2670b20935a7!8m2!3d-8.0988822!4d110.4405627!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVF5TlVsWWQwWm5FQUXgAQD6AQQIABA4!16s%2Fg%2F11rd3gp10k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -2616,25 +2556,24 @@
           <t>0812-5050-542</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.5</v>
+        <v>-7.929386</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.929386</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.648988</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Goa+Pindul/@-7.9293861,110.3605973,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb3458abe4f09:0xd54ced46ae184848!8m2!3d-7.9293861!4d110.6489884!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fm%2F010gqn3w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Goa+Pindul/@-7.9293861,110.3605973,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb3458abe4f09:0xd54ced46ae184848!8m2!3d-7.9293861!4d110.6489884!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fm%2F010gqn3w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>12 jam lalu</t>
         </is>
@@ -2653,25 +2592,24 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.7</v>
+        <v>-8.145668000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.145668000000001</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.604391</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Sadranan/@-7.9293861,110.3605973,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbb8aa99c29f3:0xd8672d6fb7d0ceea!8m2!3d-8.145668!4d110.6043914!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVF0Tm5SNlRrbG5FQUXgAQD6AQQIABA7!16s%2Fg%2F11pb_1n47n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Sadranan/@-7.9293861,110.3605973,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbb8aa99c29f3:0xd8672d6fb7d0ceea!8m2!3d-8.145668!4d110.6043914!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVF0Tm5SNlRrbG5FQUXgAQD6AQQIABA7!16s%2Fg%2F11pb_1n47n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>11 jam lalu</t>
         </is>
@@ -2690,25 +2628,24 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.6</v>
+        <v>-7.830986</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.830986</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.633976</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puncak+Batara+Sriten/@-7.9293861,110.3605973,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4924fbd19c49:0x688069c10b3dac70!8m2!3d-7.8309862!4d110.6339761!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVF4TW1OSGRGWjNFQUXgAQD6AQQIABA0!16s%2Fg%2F11bw44jddx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puncak+Batara+Sriten/@-7.9293861,110.3605973,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4924fbd19c49:0x688069c10b3dac70!8m2!3d-7.8309862!4d110.6339761!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVF4TW1OSGRGWjNFQUXgAQD6AQQIABA0!16s%2Fg%2F11bw44jddx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2731,25 +2668,24 @@
           <t>0856-4797-1176</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.4</v>
+        <v>-8.022568</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.022568</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.66927</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kali+Ngreneng+Wediutah+Semanu+Gunungkidul/@-7.9293861,110.3605973,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb5d3f59a0931:0xd317c9bfaf28e6f9!8m2!3d-8.0225684!4d110.6692696!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJQTlZCNWNVMTNFQUXgAQD6AQQIABAx!16s%2Fg%2F11fy1m4r2r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kali+Ngreneng+Wediutah+Semanu+Gunungkidul/@-7.9293861,110.3605973,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb5d3f59a0931:0xd317c9bfaf28e6f9!8m2!3d-8.0225684!4d110.6692696!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJQTlZCNWNVMTNFQUXgAQD6AQQIABAx!16s%2Fg%2F11fy1m4r2r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2768,25 +2704,24 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.6</v>
+        <v>-8.133711999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.133711999999999</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.554743</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Kukup/@-7.9293861,110.3605973,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbbcb37b998df:0x17ef5bd72de95303!8m2!3d-8.1337123!4d110.5547433!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11hy9r8jgh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Kukup/@-7.9293861,110.3605973,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbbcb37b998df:0x17ef5bd72de95303!8m2!3d-8.1337123!4d110.5547433!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11hy9r8jgh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>8 jam lalu</t>
         </is>
@@ -2813,25 +2748,24 @@
           <t>0812-2933-2423</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.6</v>
+        <v>-7.932622</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.932622</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.649437</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Goa+Tanding/@-7.9293861,110.3605973,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b3ba37daa03:0x58e86a083b13d1d!8m2!3d-7.9326217!4d110.6494371!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11c6cfgjwh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2854,25 +2788,24 @@
           <t>0813-2624-7004</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.5</v>
+        <v>-8.118471</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.118471</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.50307</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Nguyahan/@-8.1184709,110.2146785,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bafaeaaaaaaab:0x5e9a2a78a79b968!8m2!3d-8.1184709!4d110.5030696!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5zT0dSVVIxTjNFQUXgAQD6AQUIgwEQSA!16s%2Fg%2F11f3zrcnl3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Nguyahan/@-8.1184709,110.2146785,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bafaeaaaaaaab:0x5e9a2a78a79b968!8m2!3d-8.1184709!4d110.5030696!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5zT0dSVVIxTjNFQUXgAQD6AQUIgwEQSA!16s%2Fg%2F11f3zrcnl3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2895,25 +2828,24 @@
           <t>0821-3369-4714</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.5</v>
+        <v>-8.109705</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.109705</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.468732</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Pantai+Buron/@-8.1184709,110.2146785,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf7745715867:0xb0651d8a8b9f2c04!8m2!3d-8.109705!4d110.4687319!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5PZDFsbVYwcG5FQUXgAQD6AQQIIhAr!16s%2Fg%2F11c60z2dl6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Pantai+Buron/@-8.1184709,110.2146785,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf7745715867:0xb0651d8a8b9f2c04!8m2!3d-8.109705!4d110.4687319!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5PZDFsbVYwcG5FQUXgAQD6AQQIIhAr!16s%2Fg%2F11c60z2dl6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2932,25 +2864,24 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F65" t="n">
-        <v>4.7</v>
+        <v>-8.185862</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.185862</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.691578</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bukit+Pengilon/@-8.1858625,110.403187,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb8c8e6d72db7:0x4d8d1b8b3250c79d!8m2!3d-8.1858625!4d110.6915781!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11cm0q6yx7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bukit+Pengilon/@-8.1858625,110.403187,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb8c8e6d72db7:0x4d8d1b8b3250c79d!8m2!3d-8.1858625!4d110.6915781!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11cm0q6yx7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2969,25 +2900,24 @@
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.6</v>
+        <v>-8.138451</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.138451</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.577522</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Drini+Beach/@-8.1858625,110.403187,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbb4fcba4160b:0xe3c6f8f7e1abf244!8m2!3d-8.1384509!4d110.577522!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJvTVRnM09XMW5SUkFC4AEA-gEECAAQQg!16s%2Fg%2F11b5m1n6dz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Drini+Beach/@-8.1858625,110.403187,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbb4fcba4160b:0xe3c6f8f7e1abf244!8m2!3d-8.1384509!4d110.577522!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJvTVRnM09XMW5SUkFC4AEA-gEECAAQQg!16s%2Fg%2F11b5m1n6dz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>3 jam lalu</t>
         </is>
@@ -3006,25 +2936,24 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.7</v>
+        <v>-7.876715</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.876715</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.480276</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gunung+Grigak/@-7.8767147,110.1918851,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a53e25d60c279:0xcb07452f68b0ab08!8m2!3d-7.8767147!4d110.4802762!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU40YmxwNVJuTjNSUkFC4AEA-gEECAAQJw!16s%2Fg%2F11khqzkqzl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gunung+Grigak/@-7.8767147,110.1918851,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a53e25d60c279:0xcb07452f68b0ab08!8m2!3d-7.8767147!4d110.4802762!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU40YmxwNVJuTjNSUkFC4AEA-gEECAAQJw!16s%2Fg%2F11khqzkqzl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3051,25 +2980,24 @@
           <t>0852-0031-1103</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.5</v>
+        <v>-8.116342</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.116342</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.496336</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Ngedan/@-7.8767147,110.1918851,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf8b3e1c7f97:0x9c125e8c489003c3!8m2!3d-8.1163418!4d110.4963362!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5rZUVsUE1GZEJFQUXgAQD6AQUIygEQRw!16s%2Fg%2F11b63f47hd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Ngedan/@-7.8767147,110.1918851,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf8b3e1c7f97:0x9c125e8c489003c3!8m2!3d-8.1163418!4d110.4963362!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5rZUVsUE1GZEJFQUXgAQD6AQUIygEQRw!16s%2Fg%2F11b63f47hd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>22 jam lalu</t>
         </is>
@@ -3096,25 +3024,24 @@
           <t>0822-1011-2112</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.6</v>
+        <v>-8.026439</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.026439</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.574417</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wunung+Giri+S%C3%A9la+Kandha/@-7.8767147,110.1918851,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb363ef8a6fbd:0x9689a9e2aee9205b!8m2!3d-8.0264395!4d110.5744172!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11j4t6kkqb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3129,25 +3056,24 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.4</v>
+        <v>-7.859766</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.859766</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.571037</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puncak+4G+Gedangsari/@-7.8767147,110.1918851,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4e87bc92a2ff:0x946ce679dc5437d8!8m2!3d-7.8597663!4d110.5710367!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5YZVRaTGQwdFJFQUXgAQD6AQQIHxAu!16s%2Fg%2F11c30qvzy0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puncak+4G+Gedangsari/@-7.8767147,110.1918851,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4e87bc92a2ff:0x946ce679dc5437d8!8m2!3d-7.8597663!4d110.5710367!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5YZVRaTGQwdFJFQUXgAQD6AQQIHxAu!16s%2Fg%2F11c30qvzy0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3170,25 +3096,24 @@
           <t>0882-2016-8424</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.4</v>
+        <v>-7.865997</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.865997</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.638821</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisata+punthuk+kepuh/@-7.8659968,110.35043,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a49f43a06acdd:0x8fc917d8a580a040!8m2!3d-7.8659968!4d110.6388211!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11fm53cgrz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3203,25 +3128,24 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.5</v>
+        <v>-8.033374999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.033374999999999</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.55894</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PESAREAN+GUNUNG+BAGUS/@-7.8659968,110.35043,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb22820523565:0xa5728e15f33db319!8m2!3d-8.033375!4d110.5589403!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJQZVhJdFJVNVJFQUXgAQD6AQQIABBE!16s%2Fg%2F11fy2q5kbd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3240,25 +3164,24 @@
           <t>0818-0418-5565</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.6</v>
+        <v>-7.837968</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.837968</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.673151</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wonosadi/@-7.8659968,110.35043,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a499655017da7:0x43283f8d3df3eb5b!8m2!3d-7.8379682!4d110.6731508!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJJY1RRek1XNW5SUkFC4AEA-gEECAAQFw!16s%2Fg%2F1pzyb57vg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3281,25 +3204,24 @@
           <t>0877-3895-6786</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F74" t="n">
-        <v>4.9</v>
+        <v>-7.928555</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.928555</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.652041</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisata+Goa+Pindul/@-7.8659968,110.35043,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b58f6cb3ae3:0xf6ad459492e49043!8m2!3d-7.9285545!4d110.6520406!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU14TnpsTFZWTm5FQUXgAQD6AQQIABAk!16s%2Fg%2F11t59fj0x0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisata+Goa+Pindul/@-7.8659968,110.35043,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b58f6cb3ae3:0xf6ad459492e49043!8m2!3d-7.9285545!4d110.6520406!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU14TnpsTFZWTm5FQUXgAQD6AQQIABAk!16s%2Fg%2F11t59fj0x0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -3322,25 +3244,24 @@
           <t>0882-3247-2318</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F75" t="n">
-        <v>4.6</v>
+        <v>-7.927053</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.927053</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.647753</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GOA+PINDUL+GUNUNGKIDUL/@-7.8659968,110.35043,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b0248677a97:0x9206eb1bf205224b!8m2!3d-7.927053!4d110.647753!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJJY1VsdVRGOTNSUkFC4AEA-gEFCI4BEDE!16s%2Fg%2F11v3pncrbv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GOA+PINDUL+GUNUNGKIDUL/@-7.8659968,110.35043,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b0248677a97:0x9206eb1bf205224b!8m2!3d-7.927053!4d110.647753!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJJY1VsdVRGOTNSUkFC4AEA-gEFCI4BEDE!16s%2Fg%2F11v3pncrbv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3359,25 +3280,24 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.6</v>
+        <v>-8.146423</v>
       </c>
       <c r="G76" t="n">
-        <v>-8.146423</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.606141</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pantai+Ngandong/@-8.146423,110.3177497,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bba251a7f6081:0x101b8bda010ec62f!8m2!3d-8.146423!4d110.6061408!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgEMcHVibGljX2JlYWNo4AEA!16s%2Fg%2F11b8098ft2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3392,25 +3312,24 @@
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F77" t="n">
-        <v>4.3</v>
+        <v>-8.041714000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.041714000000001</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.55576</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bukit+teletubbies/@-8.146423,110.3177497,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb1970d4018b3:0x4023c40b9168ef1f!8m2!3d-8.0417144!4d110.5557599!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJvY0hSSGVuUjNSUkFC4AEA-gEECAAQIQ!16s%2Fg%2F11fjbqmx6v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bukit+teletubbies/@-8.146423,110.3177497,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb1970d4018b3:0x4023c40b9168ef1f!8m2!3d-8.0417144!4d110.5557599!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJvY0hSSGVuUjNSUkFC4AEA-gEECAAQIQ!16s%2Fg%2F11fjbqmx6v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -3429,25 +3348,24 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.4</v>
+        <v>-8.196232</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.196232</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.768497</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Ngungap/@-8.1962324,110.4801062,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bc12f092d59e3:0xaf60ccc8e52c35d6!8m2!3d-8.1962324!4d110.7684973!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5IZGpaNVdGSlJFQUXgAQD6AQUI9wEQOQ!16s%2Fg%2F11crz_yw9h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Ngungap/@-8.1962324,110.4801062,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bc12f092d59e3:0xaf60ccc8e52c35d6!8m2!3d-8.1962324!4d110.7684973!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5IZGpaNVdGSlJFQUXgAQD6AQUI9wEQOQ!16s%2Fg%2F11crz_yw9h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3474,25 +3392,24 @@
           <t>0878-3891-6363</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.1</v>
+        <v>-7.919056</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.919056</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.617716</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tegalarum+Adventure+Park/@-7.9190556,110.3293251,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b629096d72d:0xb7ff3eae15af3358!8m2!3d-7.9190556!4d110.6177162!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ0ZG5abFEzQlJSUkFC4AEA-gEECAAQNg!16s%2Fg%2F11cjj40x04?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3515,25 +3432,24 @@
           <t>0857-4197-3511</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F80" t="n">
-        <v>4.5</v>
+        <v>-7.926668</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.926668</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.64775</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Goa+Pindul+Dewa+Bejo/@-7.9190556,110.3293251,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b3dee422bc1:0x65a12e843f2705f7!8m2!3d-7.9266681!4d110.6477499!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11bxfqddsp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3548,25 +3464,24 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F81" t="n">
-        <v>4.6</v>
+        <v>-8.193163</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.193163</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.70789</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Laguna+Wediombo/@-8.1931628,110.4194987,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbfbf4a69a277:0x4bef2b978cfb5622!8m2!3d-8.1931628!4d110.7078898!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5RWDFsdFFWOUJSUkFC4AEA-gEECCoQLw!16s%2Fg%2F11g0vyg69v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Laguna+Wediombo/@-8.1931628,110.4194987,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbfbf4a69a277:0x4bef2b978cfb5622!8m2!3d-8.1931628!4d110.7078898!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5RWDFsdFFWOUJSUkFC4AEA-gEECCoQLw!16s%2Fg%2F11g0vyg69v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3585,25 +3500,24 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F82" t="n">
-        <v>4.2</v>
+        <v>-7.95819</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.95819</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.550648</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Candi+Plembutan/@-7.9581899,110.2622565,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb2c9374df115:0xc2db0122d7dc3c39!8m2!3d-7.9581899!4d110.5506476!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVF5YldOSExVTm5FQUXgAQD6AQQIABAq!16s%2Fg%2F11c0phm5gj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Candi+Plembutan/@-7.9581899,110.2622565,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb2c9374df115:0xc2db0122d7dc3c39!8m2!3d-7.9581899!4d110.5506476!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVF5YldOSExVTm5FQUXgAQD6AQQIABAq!16s%2Fg%2F11c0phm5gj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -3630,25 +3544,24 @@
           <t>0819-3179-7178</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F83" t="n">
-        <v>4.5</v>
+        <v>-8.009694</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.009694</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.638918</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kalisuci+Cave+Tubing/@-7.9581899,110.2622565,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb4137418396b:0x2a65c2132cf56632!8m2!3d-8.0096941!4d110.638918!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11gbxfc9kn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J83" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kalisuci+Cave+Tubing/@-7.9581899,110.2622565,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb4137418396b:0x2a65c2132cf56632!8m2!3d-8.0096941!4d110.638918!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11gbxfc9kn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
         <is>
           <t>18 jam lalu</t>
         </is>
@@ -3675,25 +3588,24 @@
           <t>0812-2785-1556</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F84" t="n">
-        <v>4.6</v>
+        <v>-8.114839999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.114839999999999</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.635978</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Desa+Wisata+Tepus/@-7.9581899,110.2622565,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb9c8ca8f5f09:0x2fdcdec1e7604502!8m2!3d-8.1148402!4d110.6359781!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5TT1Y5UWN6ZG5SUkFC4AEA-gEECAAQHw!16s%2Fg%2F11sl4b9xp6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J84" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Desa+Wisata+Tepus/@-7.9581899,110.2622565,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb9c8ca8f5f09:0x2fdcdec1e7604502!8m2!3d-8.1148402!4d110.6359781!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5TT1Y5UWN6ZG5SUkFC4AEA-gEECAAQHw!16s%2Fg%2F11sl4b9xp6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -3712,25 +3624,24 @@
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F85" t="n">
-        <v>4.9</v>
+        <v>-8.090472</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.090472</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.60985</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ekowisata+Tritis+Gunungkidul/@-7.9581899,110.2622565,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb121db12254d:0x838f2d5e0b3e1454!8m2!3d-8.0904716!4d110.6098497!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJsY0hScWFXaG5SUkFC4AEA-gEFCMcBECI!16s%2Fg%2F11mv4vybrs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ekowisata+Tritis+Gunungkidul/@-7.9581899,110.2622565,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb121db12254d:0x838f2d5e0b3e1454!8m2!3d-8.0904716!4d110.6098497!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJsY0hScWFXaG5SUkFC4AEA-gEFCMcBECI!16s%2Fg%2F11mv4vybrs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3749,25 +3660,24 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F86" t="n">
-        <v>4.5</v>
+        <v>-8.123481</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.123481</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.553869</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TPR+BARON/@-7.9581899,110.2622565,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbba2eace0611:0x6b685232af5db84c!8m2!3d-8.1234808!4d110.5538693!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5TTms4dGJXRjNFQUXgAQD6AQQIABAw!16s%2Fg%2F11rc7kd_4c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J86" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TPR+BARON/@-7.9581899,110.2622565,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbba2eace0611:0x6b685232af5db84c!8m2!3d-8.1234808!4d110.5538693!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5TTms4dGJXRjNFQUXgAQD6AQQIABAw!16s%2Fg%2F11rc7kd_4c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3790,25 +3700,24 @@
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F87" t="n">
-        <v>4.4</v>
+        <v>-8.116606000000001</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.116606000000001</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.493776</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Nglimun/@-7.9581899,110.2622565,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf8bb17de379:0x6c3a984038f9d0b0!8m2!3d-8.116606!4d110.4937757!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5IZGsxcVZrOW5FQUXgAQD6AQQIABAh!16s%2Fg%2F11bx1q868d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J87" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Nglimun/@-7.9581899,110.2622565,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf8bb17de379:0x6c3a984038f9d0b0!8m2!3d-8.116606!4d110.4937757!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5IZGsxcVZrOW5FQUXgAQD6AQQIABAh!16s%2Fg%2F11bx1q868d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3835,25 +3744,24 @@
           <t>0812-2795-9555</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F88" t="n">
-        <v>4.5</v>
+        <v>-7.942299</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.942299</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.72025</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Goa+Gremeng/@-7.9422985,110.4318593,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a3553310a1715:0xd0c243438b43c311!8m2!3d-7.9422985!4d110.7202504!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJDZVV0NVkwSlJFQUXgAQD6AQUI9wIQOw!16s%2Fg%2F11g901b887?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Goa+Gremeng/@-7.9422985,110.4318593,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a3553310a1715:0xd0c243438b43c311!8m2!3d-7.9422985!4d110.7202504!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJDZVV0NVkwSlJFQUXgAQD6AQUI9wIQOw!16s%2Fg%2F11g901b887?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3872,25 +3780,24 @@
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F89" t="n">
-        <v>4.5</v>
+        <v>-8.164338000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>-8.164338000000001</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.791431</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bengawan+Solo+Purba/@-7.9422985,110.4318593,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bc69640fbc45b:0x79173c492c26626a!8m2!3d-8.1643385!4d110.7914309!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0xYjJaWGNVRlJFQUXgAQD6AQQIABAh!16s%2Fg%2F11c56qvnn4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J89" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bengawan+Solo+Purba/@-7.9422985,110.4318593,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bc69640fbc45b:0x79173c492c26626a!8m2!3d-8.1643385!4d110.7914309!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0xYjJaWGNVRlJFQUXgAQD6AQQIABAh!16s%2Fg%2F11c56qvnn4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -3909,25 +3816,24 @@
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F90" t="n">
-        <v>4.6</v>
+        <v>-8.136734000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-8.136734000000001</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.568552</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Sepanjang/@-8.1367336,110.2801609,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbaf551cbaf3f:0x9c3710b67afb261a!8m2!3d-8.1367336!4d110.568552!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgEMcHVibGljX2JlYWNo4AEA!16s%2Fg%2F11f3n34tkp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J90" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Sepanjang/@-8.1367336,110.2801609,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbaf551cbaf3f:0x9c3710b67afb261a!8m2!3d-8.1367336!4d110.568552!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgEMcHVibGljX2JlYWNo4AEA!16s%2Fg%2F11f3n34tkp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
         <is>
           <t>18 jam lalu</t>
         </is>
@@ -3946,25 +3852,24 @@
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F91" t="n">
-        <v>4.5</v>
+        <v>-7.923528</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.923528</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.646971</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Air+Terjun+Pengantin/@-8.1367336,110.2801609,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b167e8cd65f:0x535ea689d2d6e669!8m2!3d-7.923528!4d110.6469708!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJmY1RSZmJVbEJFQUXgAQD6AQQIABBG!16s%2Fg%2F11cs9m1brf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3979,25 +3884,24 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F92" t="n">
-        <v>4.3</v>
+        <v>-7.950982</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.950982</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.726363</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Waduk+Beton+Ponjong/@-7.9509824,110.4379717,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bcab044cf3c7d:0x2041bfb5f5167a74!8m2!3d-7.9509824!4d110.7263628!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJDTjE5eFJWOW5SUkFC4AEA-gEECAAQQg!16s%2Fg%2F11bw1wdshj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4012,25 +3916,24 @@
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F93" t="n">
-        <v>4.6</v>
+        <v>-8.12955</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.12955</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.534235</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kayu+Arum+Beach/@-8.1295496,110.2458434,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbabdf03c5607:0x50169f0ec086d6a0!8m2!3d-8.1295496!4d110.5342345!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5QY1RSTGJVTlJFQUXgAQD6AQQITBBC!16s%2Fg%2F11csq2768k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J93" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kayu+Arum+Beach/@-8.1295496,110.2458434,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbabdf03c5607:0x50169f0ec086d6a0!8m2!3d-8.1295496!4d110.5342345!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5QY1RSTGJVTlJFQUXgAQD6AQQITBBC!16s%2Fg%2F11csq2768k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
         <is>
           <t>14 jam lalu</t>
         </is>
@@ -4049,25 +3952,24 @@
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F94" t="n">
-        <v>4.8</v>
+        <v>-8.108705</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.108705</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.468194</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gesing+Wonderland/@-8.1295496,110.2458434,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf450dc1fe8b:0xdd538d010311c682!8m2!3d-8.1087046!4d110.4681938!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVIyZFY5ZlkxcEJFQUXgAQD6AQUIuwEQRw!16s%2Fg%2F11srkttt5n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J94" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gesing+Wonderland/@-8.1295496,110.2458434,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf450dc1fe8b:0xdd538d010311c682!8m2!3d-8.1087046!4d110.4681938!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVIyZFY5ZlkxcEJFQUXgAQD6AQUIuwEQRw!16s%2Fg%2F11srkttt5n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -4090,25 +3992,24 @@
           <t>0812-2999-9658</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F95" t="n">
-        <v>4.4</v>
+        <v>-7.927646</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.927646</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.649904</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Panca+Wisata+Goa+Pindul/@-8.1295496,110.2458434,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4bfab3987173:0x468c21b6e17a295f!8m2!3d-7.9276464!4d110.6499041!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU55ZW5FeU1XMTNSUkFC4AEA-gEFCKwBEDo!16s%2Fg%2F11txhlc00d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4123,25 +4024,24 @@
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F96" t="n">
-        <v>4.6</v>
+        <v>-8.148783</v>
       </c>
       <c r="G96" t="n">
-        <v>-8.148783</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.595715</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yungyang+Hill+(Bukit+Kubengan)/@-8.1295496,110.2458434,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bba365ebce667:0x7537c8ad02b4acf7!8m2!3d-8.1487828!4d110.5957154!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5KTjA1RE5VNTNFQUXgAQD6AQUIxAEQPQ!16s%2Fg%2F11bw5w8zk4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yungyang+Hill+(Bukit+Kubengan)/@-8.1295496,110.2458434,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bba365ebce667:0x7537c8ad02b4acf7!8m2!3d-8.1487828!4d110.5957154!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5KTjA1RE5VNTNFQUXgAQD6AQUIxAEQPQ!16s%2Fg%2F11bw5w8zk4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -4165,22 +4065,21 @@
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>-8.147525</v>
+      </c>
       <c r="G97" t="n">
-        <v>-8.147525</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.608621</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pantai+Sundak+Timur/@-8.1295496,110.2458434,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbbda4937c953:0xe7ad64ccfabf4218!8m2!3d-8.1475253!4d110.6086209!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJoZW5CbFJ6Rm5SUkFC4AEA-gEECAAQRw!16s%2Fg%2F11j00y7yxs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4203,25 +4102,24 @@
           <t>0812-2535-8666</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F98" t="n">
-        <v>4.4</v>
+        <v>-7.931618</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.931618</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.650479</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PINDUL+ADVENTURE+PARK/@-8.1295496,110.2458434,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b3ad4c011a5:0xf05d9d6d0bf544bc!8m2!3d-7.9316178!4d110.6504785!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5YTVhaTWRqTjNSUkFC4AEA-gEECAAQKg!16s%2Fg%2F11cn9l1xp8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J98" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PINDUL+ADVENTURE+PARK/@-8.1295496,110.2458434,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b3ad4c011a5:0xf05d9d6d0bf544bc!8m2!3d-7.9316178!4d110.6504785!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5YTVhaTWRqTjNSUkFC4AEA-gEECAAQKg!16s%2Fg%2F11cn9l1xp8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -4248,25 +4146,24 @@
           <t>0823-2575-8622</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F99" t="n">
-        <v>4.7</v>
+        <v>-7.929058</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.929058</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.653786</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Obyek+Wisata+Gua+Pindul/@-8.1295496,110.2458434,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b233c3d3611:0x27df4e42ef6fb142!8m2!3d-7.9290576!4d110.6537855!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU50ZHpoNVZrNUJFQUXgAQD6AQQIABAc!16s%2Fg%2F11c716lgvv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Obyek+Wisata+Gua+Pindul/@-8.1295496,110.2458434,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b233c3d3611:0x27df4e42ef6fb142!8m2!3d-7.9290576!4d110.6537855!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU50ZHpoNVZrNUJFQUXgAQD6AQQIABAc!16s%2Fg%2F11c716lgvv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4289,25 +4186,24 @@
           <t>0838-4343-3888</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F100" t="n">
-        <v>4.6</v>
+        <v>-7.929044</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.929044</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.653854</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Tunas+Wisata+Goa+Pindul/@-8.1295496,110.2458434,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb4c7fb0c75f5:0x3b4cf3309d58ff73!8m2!3d-7.9290438!4d110.6538542!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F1pzw57zxb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J100" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Tunas+Wisata+Goa+Pindul/@-8.1295496,110.2458434,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb4c7fb0c75f5:0x3b4cf3309d58ff73!8m2!3d-7.9290438!4d110.6538542!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F1pzw57zxb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -4330,25 +4226,24 @@
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F101" t="n">
-        <v>4.4</v>
+        <v>-8.010282</v>
       </c>
       <c r="G101" t="n">
-        <v>-8.010282</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.676861</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Embung+Jlamprong/@-8.1295496,110.2458434,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb5c624027e15:0xe45c5c61f2aa9e6d!8m2!3d-8.0102818!4d110.6768613!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5IYkUweWFUaDNSUkFC4AEA-gEECAAQOw!16s%2Fg%2F11c550qhr1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4363,25 +4258,24 @@
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F102" t="n">
-        <v>4.4</v>
+        <v>-8.182022</v>
       </c>
       <c r="G102" t="n">
-        <v>-8.182022</v>
-      </c>
-      <c r="H102" t="n">
         <v>110.69579</v>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gunung+Api+Purba+Batur+Gunungkidul/@-8.1820216,110.4073987,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb8b0dba441b9:0xfa8030a6641ee38!8m2!3d-8.1820216!4d110.6957898!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxZFhCSWFITkJSUkFC4AEA-gEECAAQNg!16s%2Fg%2F11c1t66840?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J102" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gunung+Api+Purba+Batur+Gunungkidul/@-8.1820216,110.4073987,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb8b0dba441b9:0xfa8030a6641ee38!8m2!3d-8.1820216!4d110.6957898!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxZFhCSWFITkJSUkFC4AEA-gEECAAQNg!16s%2Fg%2F11c1t66840?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -4404,25 +4298,24 @@
           <t>0823-2693-2119</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F103" t="n">
-        <v>4.9</v>
+        <v>-8.151574999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>-8.151574999999999</v>
-      </c>
-      <c r="H103" t="n">
         <v>110.613255</v>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr">
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bukit+Karang+Gunungkidul/@-8.1820216,110.4073987,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbbd71be15ffb:0x16b772a3ea2051d1!8m2!3d-8.1515749!4d110.6132552!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11h4cfvy01?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4441,25 +4334,24 @@
           <t>0813-2859-3137</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F104" t="n">
-        <v>4.2</v>
+        <v>-7.981975</v>
       </c>
       <c r="G104" t="n">
-        <v>-7.981975</v>
-      </c>
-      <c r="H104" t="n">
         <v>110.714613</v>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Water+Byur+Sumber+Ponjong/@-8.1820216,110.4073987,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bca80522f06a7:0x112ba839222f87bb!8m2!3d-7.9819748!4d110.7146134!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b88h90yv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J104" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Water+Byur+Sumber+Ponjong/@-8.1820216,110.4073987,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bca80522f06a7:0x112ba839222f87bb!8m2!3d-7.9819748!4d110.7146134!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b88h90yv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -4482,25 +4374,24 @@
           <t>0812-2969-471</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F105" t="n">
-        <v>4.7</v>
+        <v>-8.026854999999999</v>
       </c>
       <c r="G105" t="n">
-        <v>-8.026854999999999</v>
-      </c>
-      <c r="H105" t="n">
         <v>110.345912</v>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bukit+Paralayang+Watugupit/@-8.0268551,110.0575211,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baa1254b588c1:0xd78b48bf093653cc!8m2!3d-8.0268551!4d110.3459122!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11h2gfr5yn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J105" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bukit+Paralayang+Watugupit/@-8.0268551,110.0575211,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baa1254b588c1:0xd78b48bf093653cc!8m2!3d-8.0268551!4d110.3459122!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11h2gfr5yn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
         <is>
           <t>12 jam lalu</t>
         </is>
@@ -4519,25 +4410,24 @@
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F106" t="n">
-        <v>4.7</v>
+        <v>-8.139699999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>-8.139699999999999</v>
-      </c>
-      <c r="H106" t="n">
         <v>110.613748</v>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bukit+Rowari/@-8.1397003,110.3253564,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbb689bfe1d81:0x507b56d1d9589c8b!8m2!3d-8.1397003!4d110.6137475!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU14YVc5aWEzUjNSUkFC4AEA-gEECEcQOw!16s%2Fg%2F11sd33x31z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4560,25 +4450,24 @@
           <t>0831-4593-1319</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F107" t="n">
-        <v>4.5</v>
+        <v>-8.133338999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>-8.133338999999999</v>
-      </c>
-      <c r="H107" t="n">
         <v>110.553741</v>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Ngrawe+(MESRA)/@-8.1397003,110.3253564,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbb5c26a16919:0x36d06fe62eda6ae6!8m2!3d-8.1333389!4d110.5537405!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF5YjNOVE1USkJSUkFC4AEA-gEECAAQRA!16s%2Fg%2F11h7c85z0t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J107" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Ngrawe+(MESRA)/@-8.1397003,110.3253564,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbb5c26a16919:0x36d06fe62eda6ae6!8m2!3d-8.1333389!4d110.5537405!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF5YjNOVE1USkJSUkFC4AEA-gEECAAQRA!16s%2Fg%2F11h7c85z0t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4597,25 +4486,24 @@
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F108" t="n">
-        <v>4.6</v>
+        <v>-8.153423999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>-8.153423999999999</v>
-      </c>
-      <c r="H108" t="n">
         <v>110.617118</v>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Goa+Watulawang+(Tepus)/@-8.1397003,110.3253564,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb907aa799383:0x5199fbf227afb65!8m2!3d-8.1534239!4d110.6171184!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJXTXpsUFFVUm5FQUXgAQD6AQUIzgQQRw!16s%2Fg%2F11nnr_ppl5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J108" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Goa+Watulawang+(Tepus)/@-8.1397003,110.3253564,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb907aa799383:0x5199fbf227afb65!8m2!3d-8.1534239!4d110.6171184!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJXTXpsUFFVUm5FQUXgAQD6AQUIzgQQRw!16s%2Fg%2F11nnr_ppl5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -4638,25 +4526,24 @@
           <t>0813-2744-8758</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="n">
+        <v>5</v>
+      </c>
       <c r="F109" t="n">
-        <v>5</v>
+        <v>-8.145780999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>-8.145780999999999</v>
-      </c>
-      <c r="H109" t="n">
         <v>110.607338</v>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jeep+wisata+pantai+gunungkidul/@-8.1397003,110.3253564,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbbd78db3d9df:0x4ea8ac45be4ce739!8m2!3d-8.1457815!4d110.6073381!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5rTlV0cGRqaG5SUkFC4AEA-gEECAAQJg!16s%2Fg%2F11tmgwrfph?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J109" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jeep+wisata+pantai+gunungkidul/@-8.1397003,110.3253564,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbbd78db3d9df:0x4ea8ac45be4ce739!8m2!3d-8.1457815!4d110.6073381!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5rTlV0cGRqaG5SUkFC4AEA-gEECAAQJg!16s%2Fg%2F11tmgwrfph?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4675,25 +4562,24 @@
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F110" t="n">
-        <v>4.4</v>
+        <v>-8.111525</v>
       </c>
       <c r="G110" t="n">
-        <v>-8.111525</v>
-      </c>
-      <c r="H110" t="n">
         <v>110.493151</v>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gunung+Beluk+Gunungkidul/@-8.1397003,110.3253564,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf64c8ea446f:0x826c4a5741d252fd!8m2!3d-8.1115247!4d110.4931507!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11h0_s6p13?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J110" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gunung+Beluk+Gunungkidul/@-8.1397003,110.3253564,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf64c8ea446f:0x826c4a5741d252fd!8m2!3d-8.1115247!4d110.4931507!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11h0_s6p13?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -4712,25 +4598,24 @@
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F111" t="n">
-        <v>4.4</v>
+        <v>-7.847761</v>
       </c>
       <c r="G111" t="n">
-        <v>-7.847761</v>
-      </c>
-      <c r="H111" t="n">
         <v>110.481414</v>
       </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Geopark+Gunung+Sewu/@-7.8477609,110.193023,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a51a15741f3bd:0x267394459555d8d7!8m2!3d-7.8477609!4d110.4814141!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJJYlV0UFkyNTNSUkFC4AEA-gEECDEQSQ!16s%2Fg%2F11g691nnbr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4753,25 +4638,24 @@
           <t>0821-2389-3838</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F112" t="n">
-        <v>4.6</v>
+        <v>-7.931078</v>
       </c>
       <c r="G112" t="n">
-        <v>-7.931078</v>
-      </c>
-      <c r="H112" t="n">
         <v>110.647917</v>
       </c>
-      <c r="I112" t="b">
-        <v>0</v>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisata+Sungai+Oyo/@-7.931078,110.3595261,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b46aaaaaaab:0x507a12ddd5f7339!8m2!3d-7.931078!4d110.6479172!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJPY2pnM1luaFJSUkFC4AEA-gEECAAQOg!16s%2Fg%2F11g8wctn8j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J112" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisata+Sungai+Oyo/@-7.931078,110.3595261,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b46aaaaaaab:0x507a12ddd5f7339!8m2!3d-7.931078!4d110.6479172!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJPY2pnM1luaFJSUkFC4AEA-gEECAAQOg!16s%2Fg%2F11g8wctn8j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -4790,25 +4674,24 @@
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F113" t="n">
-        <v>4.3</v>
+        <v>-8.034985000000001</v>
       </c>
       <c r="G113" t="n">
-        <v>-8.034985000000001</v>
-      </c>
-      <c r="H113" t="n">
         <v>110.680291</v>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gua+Bribin/@-7.931078,110.3595261,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb671a7edb1af:0xc3fce16f0b737636!8m2!3d-8.0349855!4d110.6802905!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5ZYURoSGJVZG5FQUXgAQD6AQQIABAu!16s%2Fg%2F11bwpy4zxq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J113" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gua+Bribin/@-7.931078,110.3595261,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb671a7edb1af:0xc3fce16f0b737636!8m2!3d-8.0349855!4d110.6802905!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5ZYURoSGJVZG5FQUXgAQD6AQQIABAu!16s%2Fg%2F11bwpy4zxq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -4831,25 +4714,24 @@
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F114" t="n">
-        <v>4.9</v>
+        <v>-8.145322999999999</v>
       </c>
       <c r="G114" t="n">
-        <v>-8.145322999999999</v>
-      </c>
-      <c r="H114" t="n">
         <v>110.604636</v>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisata+Gunungkidul/@-7.931078,110.3595261,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbbb7fc477e0f:0x2ad1be52fe3ded02!8m2!3d-8.1453231!4d110.6046364!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11vt2kdtbm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4868,25 +4750,24 @@
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F115" t="n">
-        <v>4.9</v>
+        <v>-7.820595</v>
       </c>
       <c r="G115" t="n">
-        <v>-7.820595</v>
-      </c>
-      <c r="H115" t="n">
         <v>110.596315</v>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr">
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisata+Puncak+Clongop+-+WPC/@-7.931078,110.3595261,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4f5006534377:0x99ab78ddce20139f!8m2!3d-7.8205951!4d110.5963146!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJQY1UxcWNHMUJSUkFC4AEA-gEFCIoBED0!16s%2Fg%2F11h2jw_00f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4909,25 +4790,24 @@
           <t>0852-2928-8282</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F116" t="n">
-        <v>4.4</v>
+        <v>-7.937154</v>
       </c>
       <c r="G116" t="n">
-        <v>-7.937154</v>
-      </c>
-      <c r="H116" t="n">
         <v>110.635856</v>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bejiharjo+Edupark/@-7.931078,110.3595261,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4bd371989719:0x829ad46e9b82d3c8!8m2!3d-7.9371538!4d110.6358557!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5LTTJKUVkzRkJSUkFC4AEA-gEECAAQPQ!16s%2Fg%2F11j279tjgy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4946,25 +4826,24 @@
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F117" t="n">
-        <v>4.4</v>
+        <v>-7.857514</v>
       </c>
       <c r="G117" t="n">
-        <v>-7.857514</v>
-      </c>
-      <c r="H117" t="n">
         <v>110.488801</v>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Air+Terjun+Gogor+Park+Patuk+Gunungkidul/@-7.8575138,110.2004101,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a5191278c15b7:0x2f4dee0e24a212a3!8m2!3d-7.8575138!4d110.4888012!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5IWHprMlExUm5FQUXgAQD6AQQIVhAu!16s%2Fg%2F11g873_hrm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4983,25 +4862,24 @@
           <t>0813-2864-4776</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F118" t="n">
-        <v>4.2</v>
+        <v>-8.026496</v>
       </c>
       <c r="G118" t="n">
-        <v>-8.026496</v>
-      </c>
-      <c r="H118" t="n">
         <v>110.587334</v>
       </c>
-      <c r="I118" t="b">
-        <v>0</v>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Etalase+taman+batu+geopark+gunungsewu/@-7.8575138,110.2004101,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb3de60e042d9:0x1c187b054d2e43ec!8m2!3d-8.0264962!4d110.5873339!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU10TVhWeUxUQm5SUkFC4AEA-gEECAAQNw!16s%2Fg%2F11cjg92z0y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J118" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Etalase+taman+batu+geopark+gunungsewu/@-7.8575138,110.2004101,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb3de60e042d9:0x1c187b054d2e43ec!8m2!3d-8.0264962!4d110.5873339!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU10TVhWeUxUQm5SUkFC4AEA-gEECAAQNw!16s%2Fg%2F11cjg92z0y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -5024,25 +4902,24 @@
           <t>0813-2864-4776</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F119" t="n">
-        <v>4.2</v>
+        <v>-8.115741</v>
       </c>
       <c r="G119" t="n">
-        <v>-8.115741</v>
-      </c>
-      <c r="H119" t="n">
         <v>110.490896</v>
       </c>
-      <c r="I119" t="b">
-        <v>0</v>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Njanganan/@-8.1157408,110.2025048,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf89429720f7:0x741ba89017b5dd6!8m2!3d-8.1157408!4d110.4908959!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyYkhSWWNIaDNSUkFC4AEA-gEECAAQEA!16s%2Fg%2F11g6pfw7kr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J119" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Njanganan/@-8.1157408,110.2025048,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf89429720f7:0x741ba89017b5dd6!8m2!3d-8.1157408!4d110.4908959!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyYkhSWWNIaDNSUkFC4AEA-gEECAAQEA!16s%2Fg%2F11g6pfw7kr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -5061,25 +4938,24 @@
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F120" t="n">
-        <v>3.9</v>
+        <v>-7.918493</v>
       </c>
       <c r="G120" t="n">
-        <v>-7.918493</v>
-      </c>
-      <c r="H120" t="n">
         <v>110.610345</v>
       </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr">
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisata+Goa+Pari/@-8.1157408,110.2025048,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4c9b5c844aa7:0xbad248612e6231b3!8m2!3d-7.918493!4d110.6103449!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJQTlhaeWFXSlJFQUXgAQD6AQQIABAk!16s%2Fg%2F11g6mw9wsb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5102,25 +4978,24 @@
           <t>0813-8822-7906</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F121" t="n">
-        <v>4.6</v>
+        <v>-8.197806999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>-8.197806999999999</v>
-      </c>
-      <c r="H121" t="n">
         <v>110.713617</v>
       </c>
-      <c r="I121" t="b">
-        <v>0</v>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jungwok+Blue+Ocean/@-8.1978067,110.4252262,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bc1e846b6a00f:0xb4ebba7056e41cb7!8m2!3d-8.1978067!4d110.7136173!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5JYmtwNlp6Vm5SUkFC4AEA-gEECAAQNg!16s%2Fg%2F11kpssl0kz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J121" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jungwok+Blue+Ocean/@-8.1978067,110.4252262,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bc1e846b6a00f:0xb4ebba7056e41cb7!8m2!3d-8.1978067!4d110.7136173!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5JYmtwNlp6Vm5SUkFC4AEA-gEECAAQNg!16s%2Fg%2F11kpssl0kz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
         <is>
           <t>15 jam lalu</t>
         </is>
@@ -5143,25 +5018,24 @@
           <t>0899-3210-130</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="n">
+        <v>5</v>
+      </c>
       <c r="F122" t="n">
-        <v>5</v>
+        <v>-8.059386999999999</v>
       </c>
       <c r="G122" t="n">
-        <v>-8.059386999999999</v>
-      </c>
-      <c r="H122" t="n">
         <v>110.698315</v>
       </c>
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr">
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisata/@-8.1978067,110.4252262,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb74e0af1204f:0x41a8aff99b8cb1b1!8m2!3d-8.0593871!4d110.6983149!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJZYjFsaGVEVkJSUkFC4AEA-gEECAAQFA!16s%2Fg%2F11jcmb14c8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5176,25 +5050,24 @@
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F123" t="n">
-        <v>4.8</v>
+        <v>-7.898887</v>
       </c>
       <c r="G123" t="n">
-        <v>-7.898887</v>
-      </c>
-      <c r="H123" t="n">
         <v>110.743426</v>
       </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr">
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisata+Air+Terjun+Ngelo+Ngepoh/@-7.8988873,110.4550349,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a35c8f014b6c5:0xa0ee3689fcf4c31!8m2!3d-7.8988873!4d110.743426!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5MYkhNeVpHNW5SUkFC4AEA-gEECAAQOg!16s%2Fg%2F11mp_xwfqy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5209,25 +5082,24 @@
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F124" t="n">
-        <v>4.5</v>
+        <v>-8.155877</v>
       </c>
       <c r="G124" t="n">
-        <v>-8.155877</v>
-      </c>
-      <c r="H124" t="n">
         <v>110.622428</v>
       </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr">
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bukit+Panjung/@-8.1558772,110.3340371,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb96c65d5ac59:0xbae4c5f0c4512a44!8m2!3d-8.1558772!4d110.6224282!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJXYlhKZlVuRlJSUkFC4AEA-gEFCLoCEEY!16s%2Fg%2F11h3vgg3gp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5242,25 +5114,24 @@
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F125" t="n">
-        <v>4.4</v>
+        <v>-7.859735</v>
       </c>
       <c r="G125" t="n">
-        <v>-7.859735</v>
-      </c>
-      <c r="H125" t="n">
         <v>110.549856</v>
       </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr">
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Batur/@-7.8597347,110.2614646,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4e72134cbf69:0x8a89e6d15ab7d7f3!8m2!3d-7.8597347!4d110.5498557!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJuZVUxVU5VcEJFQUXgAQD6AQQIABA5!16s%2Fg%2F11c57m49jn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5283,25 +5154,24 @@
           <t>0878-3988-8390</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F126" t="n">
-        <v>4.3</v>
+        <v>-7.928795</v>
       </c>
       <c r="G126" t="n">
-        <v>-7.928795</v>
-      </c>
-      <c r="H126" t="n">
         <v>110.60205</v>
       </c>
-      <c r="I126" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr">
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bumi+Watu+Obong/@-7.8597347,110.2614646,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4d812ea87d09:0xbb05a18f4f0cb809!8m2!3d-7.9287949!4d110.6020503!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0xZVc5dVpGbG5FQUXgAQD6AQQIABBF!16s%2Fg%2F11h_f5tdzb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5316,25 +5186,24 @@
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F127" t="n">
-        <v>4.5</v>
+        <v>-7.926935</v>
       </c>
       <c r="G127" t="n">
-        <v>-7.926935</v>
-      </c>
-      <c r="H127" t="n">
         <v>110.648075</v>
       </c>
-      <c r="I127" t="b">
-        <v>0</v>
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gua+Gelatik/@-7.8597347,110.2614646,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b3deb179f8f:0x6957e3ecee248118!8m2!3d-7.9269354!4d110.6480752!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgEEcGFya5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOQ2RHRnVXRjlCUlJBQuABAPoBBAgAEBM!16s%2Fg%2F11bxg12kfm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J127" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gua+Gelatik/@-7.8597347,110.2614646,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b3deb179f8f:0x6957e3ecee248118!8m2!3d-7.9269354!4d110.6480752!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgEEcGFya5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOQ2RHRnVXRjlCUlJBQuABAPoBBAgAEBM!16s%2Fg%2F11bxg12kfm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -5357,25 +5226,24 @@
           <t>0877-5264-0835</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
+      <c r="E128" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F128" t="n">
-        <v>4.6</v>
+        <v>-8.127738000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>-8.127738000000001</v>
-      </c>
-      <c r="H128" t="n">
         <v>110.522587</v>
       </c>
-      <c r="I128" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr">
+      <c r="H128" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bukit+Patuk+Duwur/@-8.127738,110.2341956,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbaad7cb6684d:0x8c943ae9dda9e2e2!8m2!3d-8.127738!4d110.5225867!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5YY1RkaU5GWlJFQUXgAQD6AQQIABAl!16s%2Fg%2F11c517w6tm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5390,25 +5258,24 @@
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F129" t="n">
-        <v>4.1</v>
+        <v>-8.009925000000001</v>
       </c>
       <c r="G129" t="n">
-        <v>-8.009925000000001</v>
-      </c>
-      <c r="H129" t="n">
         <v>110.607958</v>
       </c>
-      <c r="I129" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr">
+      <c r="H129" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Candi+Dengok/@-8.127738,110.2341956,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb38cd62748f3:0x6ad4bbec71ccfd1c!8m2!3d-8.009925!4d110.607958!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJsYVhCbWFXSm5FQUXgAQD6AQUI-QQQKg!16s%2Fg%2F11g9jsfk4k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5423,25 +5290,24 @@
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F130" t="n">
-        <v>4.1</v>
+        <v>-8.144959</v>
       </c>
       <c r="G130" t="n">
-        <v>-8.144959</v>
-      </c>
-      <c r="H130" t="n">
         <v>110.602098</v>
       </c>
-      <c r="I130" t="b">
-        <v>0</v>
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Slili/@-8.127738,110.2341956,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbbbe4f17248d:0x16f45166c649f404!8m2!3d-8.1449587!4d110.6020982!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI0ZFZCUGIwVm5FQUXgAQD6AQQIABAu!16s%2Fg%2F11n0v4q6bn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J130" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Slili/@-8.127738,110.2341956,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbbbe4f17248d:0x16f45166c649f404!8m2!3d-8.1449587!4d110.6020982!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI0ZFZCUGIwVm5FQUXgAQD6AQQIABAu!16s%2Fg%2F11n0v4q6bn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -5460,25 +5326,24 @@
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="n">
+        <v>4</v>
+      </c>
       <c r="F131" t="n">
-        <v>4</v>
+        <v>-7.809025</v>
       </c>
       <c r="G131" t="n">
-        <v>-7.809025</v>
-      </c>
-      <c r="H131" t="n">
         <v>110.642488</v>
       </c>
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr">
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Air+Terjun+Curug+Tegalrejo/@-7.8090249,110.3540971,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a48e9941fe45f:0x8e08f9f9d8c1ef13!8m2!3d-7.8090249!4d110.6424882!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU0yY3pkVU1tMVJSUkFC4AEA-gEECAAQMg!16s%2Fg%2F11b7ztv3s8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5493,25 +5358,24 @@
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F132" t="n">
-        <v>4.6</v>
+        <v>-8.120483999999999</v>
       </c>
       <c r="G132" t="n">
-        <v>-8.120483999999999</v>
-      </c>
-      <c r="H132" t="n">
         <v>110.507449</v>
       </c>
-      <c r="I132" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr">
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pantai+Dadap+Ayam/@-8.1204837,110.2190574,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7ba55844b9b04d:0x8b9d446ea4370c63!8m2!3d-8.1204837!4d110.5074485!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF5ZFZsSFdHbG5SUkFC4AEA-gEECAAQJw!16s%2Fg%2F11c1w0wjtp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5534,25 +5398,24 @@
           <t>0813-2541-4441</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F133" t="n">
-        <v>4.6</v>
+        <v>-8.144807999999999</v>
       </c>
       <c r="G133" t="n">
-        <v>-8.144807999999999</v>
-      </c>
-      <c r="H133" t="n">
         <v>110.602967</v>
       </c>
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr">
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisata+Snorkeling+Pantai+Sadranan+%22Slulup+Adventure%22/@-8.1204837,110.2190574,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bba30765c666f:0x3b60e239041ea56b!8m2!3d-8.1448083!4d110.6029674!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11bw2h029m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5567,25 +5430,24 @@
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F134" t="n">
-        <v>4.2</v>
+        <v>-8.081303999999999</v>
       </c>
       <c r="G134" t="n">
-        <v>-8.081303999999999</v>
-      </c>
-      <c r="H134" t="n">
         <v>110.590663</v>
       </c>
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr">
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisata+lembah+Bukit+Cinta+(Telaga+Sempu)/@-8.1204837,110.2190574,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb0e70334ecf3:0x5e24607e05f9c065!8m2!3d-8.0813037!4d110.5906625!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0zYkZscVkwUjNFQUXgAQD6AQQIABAN!16s%2Fg%2F11fz_c7w8t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5600,25 +5462,24 @@
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F135" t="n">
-        <v>4.4</v>
+        <v>-8.005965</v>
       </c>
       <c r="G135" t="n">
-        <v>-8.005965</v>
-      </c>
-      <c r="H135" t="n">
         <v>110.674372</v>
       </c>
-      <c r="I135" t="b">
-        <v>0</v>
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Desa+Wisata+Mojo+(%EA%A6%A3%EA%A6%BA%EA%A6%B1%EA%A6%AE%EA%A6%B6%EA%A6%B1%EA%A6%A0%EA%A6%A9%EA%A6%BA%EA%A6%B4%EA%A6%97%EA%A6%BA%EA%A6%B4)/@-8.0059649,110.3859813,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb5b7c5db7011:0x3101c4d93dea6e28!8m2!3d-8.0059649!4d110.6743724!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJpZUZwUE1qWm5SUkFC4AEA-gEECAAQMg!16s%2Fg%2F11c15w1x48?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J135" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Desa+Wisata+Mojo+(%EA%A6%A3%EA%A6%BA%EA%A6%B1%EA%A6%AE%EA%A6%B6%EA%A6%B1%EA%A6%A0%EA%A6%A9%EA%A6%BA%EA%A6%B4%EA%A6%97%EA%A6%BA%EA%A6%B4)/@-8.0059649,110.3859813,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb5b7c5db7011:0x3101c4d93dea6e28!8m2!3d-8.0059649!4d110.6743724!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJpZUZwUE1qWm5SUkFC4AEA-gEECAAQMg!16s%2Fg%2F11c15w1x48?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -5641,25 +5502,24 @@
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F136" t="n">
-        <v>4.2</v>
+        <v>-7.949036</v>
       </c>
       <c r="G136" t="n">
-        <v>-7.949036</v>
-      </c>
-      <c r="H136" t="n">
         <v>110.7312</v>
       </c>
-      <c r="I136" t="b">
-        <v>0</v>
+      <c r="H136" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Goa+lowo/@-8.0059649,110.3859813,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bcb4f246761c1:0x7c42be6712da1e5!8m2!3d-7.9490356!4d110.7312002!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJvYzNGaGNsTm5FQUXgAQD6AQQIABAd!16s%2Fg%2F11fwv98p28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J136" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Goa+lowo/@-8.0059649,110.3859813,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bcb4f246761c1:0x7c42be6712da1e5!8m2!3d-7.9490356!4d110.7312002!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJvYzNGaGNsTm5FQUXgAQD6AQQIABAd!16s%2Fg%2F11fwv98p28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -5682,25 +5542,24 @@
           <t>0817-9405-685</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F137" t="n">
-        <v>4.2</v>
+        <v>-7.965203</v>
       </c>
       <c r="G137" t="n">
-        <v>-7.965203</v>
-      </c>
-      <c r="H137" t="n">
         <v>110.708718</v>
       </c>
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr">
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisata+Sawah+Bulak+Widoro/@-8.0059649,110.3859813,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb57c6b3edc9f:0x39c67d03f3edf450!8m2!3d-7.965203!4d110.7087182!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ0Ymw5aE1qSm5SUkFC4AEA-gEECAAQLg!16s%2Fg%2F11gs5fmqw4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5715,25 +5574,24 @@
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F138" t="n">
-        <v>4.3</v>
+        <v>-7.861626</v>
       </c>
       <c r="G138" t="n">
-        <v>-7.861626</v>
-      </c>
-      <c r="H138" t="n">
         <v>110.557259</v>
       </c>
-      <c r="I138" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr">
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bukit+Kembang+Nglegi+Patuk+Gunungkidul/@-8.0059649,110.3859813,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4e7082aff519:0xaa3c5d9507a6fd3b!8m2!3d-7.8616255!4d110.5572586!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5DZFhWZlJUWlJSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F11dymb8hzb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5756,25 +5614,24 @@
           <t>0822-2604-1137</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F139" t="n">
-        <v>4.9</v>
+        <v>-7.930977</v>
       </c>
       <c r="G139" t="n">
-        <v>-7.930977</v>
-      </c>
-      <c r="H139" t="n">
         <v>110.647926</v>
       </c>
-      <c r="I139" t="b">
-        <v>0</v>
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisata+pindul+jogja/@-8.0059649,110.3859813,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b7284e70a5f:0xff842e7957c382bb!8m2!3d-7.9309772!4d110.647926!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5LYTJSNWQxOW5SUkFC4AEA-gEECAAQQQ!16s%2Fg%2F11flbr9fwv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J139" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisata+pindul+jogja/@-8.0059649,110.3859813,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b7284e70a5f:0xff842e7957c382bb!8m2!3d-7.9309772!4d110.647926!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5LYTJSNWQxOW5SUkFC4AEA-gEECAAQQQ!16s%2Fg%2F11flbr9fwv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -5793,25 +5650,24 @@
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F140" t="n">
-        <v>4.5</v>
+        <v>-7.892844</v>
       </c>
       <c r="G140" t="n">
-        <v>-7.892844</v>
-      </c>
-      <c r="H140" t="n">
         <v>110.545654</v>
       </c>
-      <c r="I140" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr">
+      <c r="H140" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kali+Oya+Gunungkidul+Yogyakarta/@-8.0059649,110.3859813,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4d5eef600b1b:0x2d1fa61320827290!8m2!3d-7.8928444!4d110.545654!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJxYTB4RVJFZDNFQUXgAQD6AQQIABA-!16s%2Fg%2F11ny4hz4sv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5826,25 +5682,24 @@
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F141" t="n">
-        <v>4.3</v>
+        <v>-8.029465</v>
       </c>
       <c r="G141" t="n">
-        <v>-8.029465</v>
-      </c>
-      <c r="H141" t="n">
         <v>110.591511</v>
       </c>
-      <c r="I141" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr">
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Geosite+Ngingrong+tebing+Lafadz+Allah/@-8.0059649,110.3859813,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb3dfb591b9eb:0xb8737d9125bb19d5!8m2!3d-8.0294649!4d110.5915114!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5JYnpWRFpsSlJFQUXgAQD6AQUI9wIQRw!16s%2Fg%2F11cjp80xm3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5859,25 +5714,24 @@
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F142" t="n">
-        <v>4.9</v>
+        <v>-8.078151999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>-8.078151999999999</v>
-      </c>
-      <c r="H142" t="n">
         <v>110.40669</v>
       </c>
-      <c r="I142" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr">
+      <c r="H142" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Puncak+Pantai+Ngunggah/@-8.0781519,110.1182993,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7ba95c99d23b4b:0x28134571c6e32b4!8m2!3d-8.0781519!4d110.4066904!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJPZFRkSFUwdFJFQUXgAQD6AQQIABAm!16s%2Fg%2F11vfbhqvyb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5892,25 +5746,24 @@
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F143" t="n">
-        <v>4.4</v>
+        <v>-8.044034999999999</v>
       </c>
       <c r="G143" t="n">
-        <v>-8.044034999999999</v>
-      </c>
-      <c r="H143" t="n">
         <v>110.554719</v>
       </c>
-      <c r="I143" t="b">
-        <v>0</v>
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gunung+Bagus+Spot+Selfie/@-8.0440353,110.2663278,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb1fc74564a5d:0xbdd90f295aa6a14!8m2!3d-8.0440353!4d110.5547189!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU52ZDBsWVlqQm5SUkFC4AEA-gEFCIIBEEk!16s%2Fg%2F11gyc2ct9f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J143" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gunung+Bagus+Spot+Selfie/@-8.0440353,110.2663278,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb1fc74564a5d:0xbdd90f295aa6a14!8m2!3d-8.0440353!4d110.5547189!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU52ZDBsWVlqQm5SUkFC4AEA-gEFCIIBEEk!16s%2Fg%2F11gyc2ct9f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -5937,25 +5790,24 @@
           <t>0851-4703-8397</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>5</v>
+      </c>
       <c r="F144" t="n">
-        <v>5</v>
+        <v>-7.868324</v>
       </c>
       <c r="G144" t="n">
-        <v>-7.868324</v>
-      </c>
-      <c r="H144" t="n">
         <v>110.690667</v>
       </c>
-      <c r="I144" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr">
+      <c r="H144" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Sembrani+Watusigar+Gunungkidul/@-8.0440353,110.2663278,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b004571c23b:0x1c098d533aa77de1!8m2!3d-7.8683244!4d110.690667!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJpWjJFeU1YaFJSUkFC4AEA-gEECAAQHw!16s%2Fg%2F11w28vq39x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5970,25 +5822,24 @@
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="n">
+        <v>5</v>
+      </c>
       <c r="F145" t="n">
-        <v>5</v>
+        <v>-8.030509</v>
       </c>
       <c r="G145" t="n">
-        <v>-8.030509</v>
-      </c>
-      <c r="H145" t="n">
         <v>110.616892</v>
       </c>
-      <c r="I145" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr">
+      <c r="H145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pantai/@-8.0440353,110.2663278,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb3898d493b45:0xe600769e1c88f6b2!8m2!3d-8.0305091!4d110.6168921!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11krhmz6_x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6011,25 +5862,24 @@
           <t>(0274) 373721</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F146" t="n">
-        <v>4.6</v>
+        <v>-7.805284</v>
       </c>
       <c r="G146" t="n">
-        <v>-7.805284</v>
-      </c>
-      <c r="H146" t="n">
         <v>110.364203</v>
       </c>
-      <c r="I146" t="b">
-        <v>0</v>
+      <c r="H146" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Keraton+Ngayogyakarta+Hadiningrat/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5796db06c7ef:0x395271cf052b276c!8m2!3d-7.8052845!4d110.3642031!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fm%2F0vb3k_5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J146" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Keraton+Ngayogyakarta+Hadiningrat/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5796db06c7ef:0x395271cf052b276c!8m2!3d-7.8052845!4d110.3642031!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fm%2F0vb3k_5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
         <is>
           <t>15 jam lalu</t>
         </is>
@@ -6052,25 +5902,24 @@
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F147" t="n">
-        <v>4.8</v>
+        <v>-7.801397</v>
       </c>
       <c r="G147" t="n">
-        <v>-7.801397</v>
-      </c>
-      <c r="H147" t="n">
         <v>110.364764</v>
       </c>
-      <c r="I147" t="b">
-        <v>0</v>
+      <c r="H147" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Titik+Nol+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57599a1f9397:0xebbf28ee280ce10f!8m2!3d-7.8013966!4d110.3647641!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11h3cbh9_y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J147" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Titik+Nol+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57599a1f9397:0xebbf28ee280ce10f!8m2!3d-7.8013966!4d110.3647641!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11h3cbh9_y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
         <is>
           <t>9 jam lalu</t>
         </is>
@@ -6093,25 +5942,24 @@
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F148" t="n">
-        <v>4.8</v>
+        <v>-7.806959</v>
       </c>
       <c r="G148" t="n">
-        <v>-7.806959</v>
-      </c>
-      <c r="H148" t="n">
         <v>110.363927</v>
       </c>
-      <c r="I148" t="b">
-        <v>0</v>
+      <c r="H148" t="b">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kraton+Jogja/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a575c262d5709:0xf11a324efb8b84ec!8m2!3d-7.8069587!4d110.3639266!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXRibUV6VUVkbkVBReABAPoBBAgAEEc!16s%2Fg%2F122zq88b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J148" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kraton+Jogja/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a575c262d5709:0xf11a324efb8b84ec!8m2!3d-7.8069587!4d110.3639266!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXRibUV6VUVkbkVBReABAPoBBAgAEEc!16s%2Fg%2F122zq88b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -6134,25 +5982,24 @@
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F149" t="n">
-        <v>4.6</v>
+        <v>-7.809979</v>
       </c>
       <c r="G149" t="n">
-        <v>-7.809979</v>
-      </c>
-      <c r="H149" t="n">
         <v>110.358991</v>
       </c>
-      <c r="I149" t="b">
-        <v>0</v>
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kampung+Wisata+Taman+Sari/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5793d0c2cf2b:0x276a21f8a01cbe13!8m2!3d-7.8099788!4d110.3589907!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fm%2F0b6gg2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J149" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kampung+Wisata+Taman+Sari/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5793d0c2cf2b:0x276a21f8a01cbe13!8m2!3d-7.8099788!4d110.3589907!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fm%2F0b6gg2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
         <is>
           <t>3 jam lalu</t>
         </is>
@@ -6179,25 +6026,24 @@
           <t>(0274) 583631</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F150" t="n">
-        <v>4.5</v>
+        <v>-7.800672</v>
       </c>
       <c r="G150" t="n">
-        <v>-7.800672</v>
-      </c>
-      <c r="H150" t="n">
         <v>110.367655</v>
       </c>
-      <c r="I150" t="b">
-        <v>0</v>
+      <c r="H150" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Pintar+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57860f2fb9af:0xa9f6007074b62dd8!8m2!3d-7.8006715!4d110.3676551!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ5zY2llbmNlX211c2V1beABAA!16s%2Fm%2F0y6kq2z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J150" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Pintar+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57860f2fb9af:0xa9f6007074b62dd8!8m2!3d-7.8006715!4d110.3676551!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ5zY2llbmNlX211c2V1beABAA!16s%2Fm%2F0y6kq2z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -6216,25 +6062,24 @@
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F151" t="n">
-        <v>4.7</v>
+        <v>-7.798249</v>
       </c>
       <c r="G151" t="n">
-        <v>-7.798249</v>
-      </c>
-      <c r="H151" t="n">
         <v>110.365279</v>
       </c>
-      <c r="I151" t="b">
-        <v>0</v>
+      <c r="H151" t="b">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kawasan+Wisata+Malioboro/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a578819c338f1:0x72aa3ad97ecccfb6!8m2!3d-7.7982487!4d110.3652793!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11dd_kfc0g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J151" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kawasan+Wisata+Malioboro/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a578819c338f1:0x72aa3ad97ecccfb6!8m2!3d-7.7982487!4d110.3652793!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11dd_kfc0g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -6253,25 +6098,24 @@
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F152" t="n">
-        <v>4.6</v>
+        <v>-7.813728</v>
       </c>
       <c r="G152" t="n">
-        <v>-7.813728</v>
-      </c>
-      <c r="H152" t="n">
         <v>110.362907</v>
       </c>
-      <c r="I152" t="b">
-        <v>0</v>
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Plengkung+Gading/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5796f097cf41:0x89fc8d46097f458b!8m2!3d-7.8137278!4d110.3629074!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ1oaXN0b3JpY19zaXRl4AEA!16s%2Fg%2F11btlnnlpx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J152" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Plengkung+Gading/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5796f097cf41:0x89fc8d46097f458b!8m2!3d-7.8137278!4d110.3629074!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ1oaXN0b3JpY19zaXRl4AEA!16s%2Fg%2F11btlnnlpx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -6298,25 +6142,24 @@
           <t>(0274) 373617</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F153" t="n">
-        <v>4.8</v>
+        <v>-7.802333</v>
       </c>
       <c r="G153" t="n">
-        <v>-7.802333</v>
-      </c>
-      <c r="H153" t="n">
         <v>110.363944</v>
       </c>
-      <c r="I153" t="b">
-        <v>0</v>
+      <c r="H153" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Museum+Sonobudoyo+Unit+I/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a578f83070a4f:0x9d10431ac43ec5ee!8m2!3d-7.8023333!4d110.3639441!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQphcnRfbXVzZXVt4AEA!16s%2Fg%2F11h1v81d_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J153" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Museum+Sonobudoyo+Unit+I/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a578f83070a4f:0x9d10431ac43ec5ee!8m2!3d-7.8023333!4d110.3639441!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQphcnRfbXVzZXVt4AEA!16s%2Fg%2F11h1v81d_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
         <is>
           <t>10 jam lalu</t>
         </is>
@@ -6335,25 +6178,24 @@
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F154" t="n">
-        <v>4.6</v>
+        <v>-7.808958</v>
       </c>
       <c r="G154" t="n">
-        <v>-7.808958</v>
-      </c>
-      <c r="H154" t="n">
         <v>110.359842</v>
       </c>
-      <c r="I154" t="b">
-        <v>0</v>
+      <c r="H154" t="b">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pulo+Kenanga/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5793e5555555:0x671d03b55e0bf9e6!8m2!3d-7.8089581!4d110.3598416!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU40YW1ZM05tdEJSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F1pzt1xyzd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J154" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pulo+Kenanga/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5793e5555555:0x671d03b55e0bf9e6!8m2!3d-7.8089581!4d110.3598416!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU40YW1ZM05tdEJSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F1pzt1xyzd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -6380,25 +6222,24 @@
           <t>(0274) 586934</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F155" t="n">
-        <v>4.6</v>
+        <v>-7.800293</v>
       </c>
       <c r="G155" t="n">
-        <v>-7.800293</v>
-      </c>
-      <c r="H155" t="n">
         <v>110.366164</v>
       </c>
-      <c r="I155" t="b">
-        <v>0</v>
+      <c r="H155" t="b">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Museum+Benteng+Vredeburg/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5788c0b3eecf:0xb9611ce0232a9ff8!8m2!3d-7.800293!4d110.3661642!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ5oaXN0b3J5X211c2V1beABAA!16zL20vMGJyZmY4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J155" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Museum+Benteng+Vredeburg/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5788c0b3eecf:0xb9611ce0232a9ff8!8m2!3d-7.800293!4d110.3661642!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ5oaXN0b3J5X211c2V1beABAA!16zL20vMGJyZmY4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
         <is>
           <t>6 jam lalu</t>
         </is>
@@ -6417,25 +6258,24 @@
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F156" t="n">
-        <v>4.6</v>
+        <v>-7.811936</v>
       </c>
       <c r="G156" t="n">
-        <v>-7.811936</v>
-      </c>
-      <c r="H156" t="n">
         <v>110.363194</v>
       </c>
-      <c r="I156" t="b">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr">
+      <c r="H156" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bringin+Kembar+Alun-Alun+Selatan+(Masangin)+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5796d474c38b:0xa29ec3628bcfcdc0!8m2!3d-7.8119357!4d110.363194!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ1oaXN0b3JpY19zaXRlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJvTTJGVFJUVlJSUkFC4AEA-gEFCI8BEC0!16s%2Fg%2F11c464q4v6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6454,25 +6294,24 @@
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F157" t="n">
-        <v>4.6</v>
+        <v>-7.803968</v>
       </c>
       <c r="G157" t="n">
-        <v>-7.803968</v>
-      </c>
-      <c r="H157" t="n">
         <v>110.364387</v>
       </c>
-      <c r="I157" t="b">
-        <v>0</v>
+      <c r="H157" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Alun-Alun+Lor+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a578eff189057:0xfa69e0635f45b96d!8m2!3d-7.8039683!4d110.364387!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQljaXR5X3BhcmuaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFiV0ZEWkU5bkVBReABAPoBBAgAEDw!16s%2Fg%2F11d_d50f96?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J157" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Alun-Alun+Lor+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a578eff189057:0xfa69e0635f45b96d!8m2!3d-7.8039683!4d110.364387!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQljaXR5X3BhcmuaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFiV0ZEWkU5bkVBReABAPoBBAgAEDw!16s%2Fg%2F11d_d50f96?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -6495,25 +6334,24 @@
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
+      <c r="E158" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F158" t="n">
-        <v>4.3</v>
+        <v>-7.786615</v>
       </c>
       <c r="G158" t="n">
-        <v>-7.786615</v>
-      </c>
-      <c r="H158" t="n">
         <v>110.381931</v>
       </c>
-      <c r="I158" t="b">
-        <v>0</v>
+      <c r="H158" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Embung+Langensari/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a59d258bc6935:0xd72d8d2e7140104a!8m2!3d-7.7866148!4d110.3819311!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQljaXR5X3BhcmvgAQA!16s%2Fg%2F11bwkhd4d1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J158" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Embung+Langensari/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a59d258bc6935:0xd72d8d2e7140104a!8m2!3d-7.7866148!4d110.3819311!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQljaXR5X3BhcmvgAQA!16s%2Fg%2F11bwkhd4d1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
         <is>
           <t>15 jam lalu</t>
         </is>
@@ -6532,25 +6370,24 @@
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
+      <c r="E159" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F159" t="n">
-        <v>4.5</v>
+        <v>-7.801116</v>
       </c>
       <c r="G159" t="n">
-        <v>-7.801116</v>
-      </c>
-      <c r="H159" t="n">
         <v>110.364617</v>
       </c>
-      <c r="I159" t="b">
-        <v>0</v>
+      <c r="H159" t="b">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Monumen+Batik+Yogyakarta%EA%A7%8B%EA%A6%A9%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A6%B8%EA%A6%A9%EA%A6%BA%EA%A6%A4%EA%A7%80%EA%A6%A7%EA%A6%A0%EA%A6%B6%EA%A6%8F%EA%A7%80%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5788ccf98665:0x528f314a0e4136d4!8m2!3d-7.8011159!4d110.3646172!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQhtb251bWVudJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSWFEWXlOMHhCRUFF4AEA-gEECAAQOQ!16s%2Fg%2F11bbx04r8z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J159" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Monumen+Batik+Yogyakarta%EA%A7%8B%EA%A6%A9%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A6%B8%EA%A6%A9%EA%A6%BA%EA%A6%A4%EA%A7%80%EA%A6%A7%EA%A6%A0%EA%A6%B6%EA%A6%8F%EA%A7%80%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5788ccf98665:0x528f314a0e4136d4!8m2!3d-7.8011159!4d110.3646172!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQhtb251bWVudJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSWFEWXlOMHhCRUFF4AEA-gEECAAQOQ!16s%2Fg%2F11bbx04r8z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -6569,25 +6406,24 @@
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
+      <c r="E160" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F160" t="n">
-        <v>4.8</v>
+        <v>-7.798686</v>
       </c>
       <c r="G160" t="n">
-        <v>-7.798686</v>
-      </c>
-      <c r="H160" t="n">
         <v>110.365195</v>
       </c>
-      <c r="I160" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr">
+      <c r="H160" t="b">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/MALIOBORO+JOGJA/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a573d72fa9355:0x5c1c527ea0a09e7e!8m2!3d-7.7986861!4d110.3651953!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnNPRmxVWHpOUlJSQULgAQD6AQQIABBC!16s%2Fg%2F11stgwgssb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6602,25 +6438,24 @@
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F161" t="n">
-        <v>4.4</v>
+        <v>-7.803488</v>
       </c>
       <c r="G161" t="n">
-        <v>-7.803488</v>
-      </c>
-      <c r="H161" t="n">
         <v>110.366587</v>
       </c>
-      <c r="I161" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr">
+      <c r="H161" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pojok+beteng+jl.+ibu+ruswo/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57b7a78ed299:0x94b4d464cf436b!8m2!3d-7.8034876!4d110.3665867!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkxPRTFUUW01QlJSQULgAQD6AQQIABAX!16s%2Fg%2F11k6l4sfny?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6643,25 +6478,24 @@
           <t>0878-2565-6999</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr"/>
+      <c r="E162" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F162" t="n">
-        <v>4.5</v>
+        <v>-7.815278</v>
       </c>
       <c r="G162" t="n">
-        <v>-7.815278</v>
-      </c>
-      <c r="H162" t="n">
         <v>110.398836</v>
       </c>
-      <c r="I162" t="b">
-        <v>0</v>
+      <c r="H162" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kampung+Wisata+Rejowinangun/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a576c91b42bc9:0x3d6b43545f6606be!8m2!3d-7.8152776!4d110.3988359!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmxhRzlITFZWM0VBReABAPoBBAgAEEM!16s%2Fg%2F11d_2bd91y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J162" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kampung+Wisata+Rejowinangun/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a576c91b42bc9:0x3d6b43545f6606be!8m2!3d-7.8152776!4d110.3988359!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmxhRzlITFZWM0VBReABAPoBBAgAEEM!16s%2Fg%2F11d_2bd91y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -6680,25 +6514,24 @@
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
+      <c r="E163" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F163" t="n">
-        <v>4.5</v>
+        <v>-7.789826</v>
       </c>
       <c r="G163" t="n">
-        <v>-7.789826</v>
-      </c>
-      <c r="H163" t="n">
         <v>110.364855</v>
       </c>
-      <c r="I163" t="b">
-        <v>0</v>
+      <c r="H163" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Slasar+Malioboro/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a590f6437f963:0x72231067144f8eec!8m2!3d-7.7898262!4d110.3648547!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11p5r91k0v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J163" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Slasar+Malioboro/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a590f6437f963:0x72231067144f8eec!8m2!3d-7.7898262!4d110.3648547!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11p5r91k0v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
         <is>
           <t>14 jam lalu</t>
         </is>
@@ -6721,25 +6554,24 @@
           <t>0838-5718-5703</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F164" t="n">
-        <v>4.9</v>
+        <v>-7.813393</v>
       </c>
       <c r="G164" t="n">
-        <v>-7.813393</v>
-      </c>
-      <c r="H164" t="n">
         <v>110.392982</v>
       </c>
-      <c r="I164" t="b">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr">
+      <c r="H164" t="b">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kampung+Wisata+Warungboto/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57e2083b1b59:0xd58c23699705d0d0!8m2!3d-7.8133932!4d110.392982!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXRaMUJoWlZCUkVBReABAPoBBAgAEEM!16s%2Fg%2F11rfd6mky3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6758,25 +6590,24 @@
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F165" t="n">
-        <v>4.1</v>
+        <v>-7.79219</v>
       </c>
       <c r="G165" t="n">
-        <v>-7.79219</v>
-      </c>
-      <c r="H165" t="n">
         <v>110.362151</v>
       </c>
-      <c r="I165" t="b">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr">
+      <c r="H165" t="b">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kampung+Wisata+Sosromenduran/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5826be29978d:0xe41a56956d58b8c7!8m2!3d-7.79219!4d110.362151!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ5hbXVzZW1lbnRfcGFya5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSMU1uSnBNVVpCRUFF4AEA-gEECAAQGw!16s%2Fg%2F1pzs29j25?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6795,25 +6626,24 @@
           <t>(0274) 583631</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr"/>
+      <c r="E166" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F166" t="n">
-        <v>4.2</v>
+        <v>-7.800597</v>
       </c>
       <c r="G166" t="n">
-        <v>-7.800597</v>
-      </c>
-      <c r="H166" t="n">
         <v>110.367679</v>
       </c>
-      <c r="I166" t="b">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr">
+      <c r="H166" t="b">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/DINO+Adventure/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57861251a79f:0x71773acf2fb374de!8m2!3d-7.8005969!4d110.3676789!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFNVGQ1ZUU5UkVBReABAPoBBAgAEDo!16s%2Fg%2F11bxd7024b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6832,25 +6662,24 @@
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
+      <c r="E167" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F167" t="n">
-        <v>4.5</v>
+        <v>-7.81283</v>
       </c>
       <c r="G167" t="n">
-        <v>-7.81283</v>
-      </c>
-      <c r="H167" t="n">
         <v>110.356141</v>
       </c>
-      <c r="I167" t="b">
-        <v>0</v>
+      <c r="H167" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pojok+Benteng+Kulon/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5794bdc7e00f:0x8292915ace4a3dcc!8m2!3d-7.8128305!4d110.3561412!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fg%2F11b63f94cn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J167" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pojok+Benteng+Kulon/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5794bdc7e00f:0x8292915ace4a3dcc!8m2!3d-7.8128305!4d110.3561412!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fg%2F11b63f94cn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -6869,25 +6698,24 @@
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
+      <c r="E168" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F168" t="n">
-        <v>4.4</v>
+        <v>-7.803993</v>
       </c>
       <c r="G168" t="n">
-        <v>-7.803993</v>
-      </c>
-      <c r="H168" t="n">
         <v>110.398124</v>
       </c>
-      <c r="I168" t="b">
-        <v>0</v>
+      <c r="H168" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KEBON+BINATANG/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57001e4d0cdb:0x90c47bdaf9aefbc7!8m2!3d-7.8039932!4d110.3981235!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTNiMk5wVG1KM0VBReABAPoBBAgAEBo!16s%2Fm%2F0k707j_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J168" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KEBON+BINATANG/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57001e4d0cdb:0x90c47bdaf9aefbc7!8m2!3d-7.8039932!4d110.3981235!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTNiMk5wVG1KM0VBReABAPoBBAgAEBo!16s%2Fm%2F0k707j_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -6906,25 +6734,24 @@
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
+      <c r="E169" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F169" t="n">
-        <v>4.4</v>
+        <v>-7.810194</v>
       </c>
       <c r="G169" t="n">
-        <v>-7.810194</v>
-      </c>
-      <c r="H169" t="n">
         <v>110.39328</v>
       </c>
-      <c r="I169" t="b">
-        <v>0</v>
+      <c r="H169" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Situs+Warungboto/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a576dd45f6243:0x47c4825dd428cf01!8m2!3d-7.8101941!4d110.3932803!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fg%2F11h5rqc5md?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J169" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Situs+Warungboto/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a576dd45f6243:0x47c4825dd428cf01!8m2!3d-7.8101941!4d110.3932803!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fg%2F11h5rqc5md?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -6943,25 +6770,24 @@
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
+      <c r="E170" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F170" t="n">
-        <v>4.3</v>
+        <v>-7.803549</v>
       </c>
       <c r="G170" t="n">
-        <v>-7.803549</v>
-      </c>
-      <c r="H170" t="n">
         <v>110.369842</v>
       </c>
-      <c r="I170" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr">
+      <c r="H170" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gereja+Sayidan/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57850056ca21:0xa8efa0b92ac530ca!8m2!3d-7.8035488!4d110.3698419!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5CTm5ZM1VYcG5SUkFC4AEA-gEECAAQQQ!16s%2Fg%2F11h7dclrlr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6984,25 +6810,24 @@
           <t>(0274) 417202</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr"/>
+      <c r="E171" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F171" t="n">
-        <v>4.7</v>
+        <v>-7.814481</v>
       </c>
       <c r="G171" t="n">
-        <v>-7.814481</v>
-      </c>
-      <c r="H171" t="n">
         <v>110.386165</v>
       </c>
-      <c r="I171" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr">
+      <c r="H171" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kampung+Wisata+Pandeyan/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57733faba62f:0x549b89f4ce016d6b!8m2!3d-7.814481!4d110.386165!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkNjV0pRVXpsblJSQULgAQD6AQQIABAe!16s%2Fg%2F11b6d00x3b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7021,25 +6846,24 @@
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
+      <c r="E172" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F172" t="n">
-        <v>4.7</v>
+        <v>-7.807991</v>
       </c>
       <c r="G172" t="n">
-        <v>-7.807991</v>
-      </c>
-      <c r="H172" t="n">
         <v>110.394508</v>
       </c>
-      <c r="I172" t="b">
-        <v>0</v>
+      <c r="H172" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Burung+Gembira+Loka/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a576eea89f16d:0x1dfe6411e397bf68!8m2!3d-7.8079912!4d110.3945075!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQN6b2-aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRhR05oZWtWQkVBReABAPoBBQipBBBH!16s%2Fg%2F11dxmdgfdb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J172" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Burung+Gembira+Loka/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a576eea89f16d:0x1dfe6411e397bf68!8m2!3d-7.8079912!4d110.3945075!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQN6b2-aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRhR05oZWtWQkVBReABAPoBBQipBBBH!16s%2Fg%2F11dxmdgfdb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -7058,25 +6882,24 @@
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F173" t="n">
-        <v>4.7</v>
+        <v>-7.796379</v>
       </c>
       <c r="G173" t="n">
-        <v>-7.796379</v>
-      </c>
-      <c r="H173" t="n">
         <v>110.365311</v>
       </c>
-      <c r="I173" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr">
+      <c r="H173" t="b">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kampung+Wisata+Pajeksan/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57881f2bd693:0xf5a3b0c9a5216c3b!8m2!3d-7.7963794!4d110.3653113!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11c1q8kc_1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7095,25 +6918,24 @@
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F174" t="n">
-        <v>4.7</v>
+        <v>-7.807142</v>
       </c>
       <c r="G174" t="n">
-        <v>-7.807142</v>
-      </c>
-      <c r="H174" t="n">
         <v>110.363782</v>
       </c>
-      <c r="I174" t="b">
-        <v>0</v>
+      <c r="H174" t="b">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bangsal+Sri+Manganti/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5793e5555555:0x795e394b70a8178e!8m2!3d-7.8071425!4d110.3637818!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5DYW04MmN6TlJSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F1pzq_63m7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J174" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bangsal+Sri+Manganti/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5793e5555555:0x795e394b70a8178e!8m2!3d-7.8071425!4d110.3637818!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5DYW04MmN6TlJSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F1pzq_63m7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -7136,25 +6958,24 @@
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F175" t="n">
-        <v>4.8</v>
+        <v>-7.782922</v>
       </c>
       <c r="G175" t="n">
-        <v>-7.782922</v>
-      </c>
-      <c r="H175" t="n">
         <v>110.367076</v>
       </c>
-      <c r="I175" t="b">
-        <v>0</v>
+      <c r="H175" t="b">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Tugu+Jogja/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a591a4d553bd5:0xc0f964003add568b!8m2!3d-7.7829218!4d110.3670757!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fg%2F122zk22q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J175" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Tugu+Jogja/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a591a4d553bd5:0xc0f964003add568b!8m2!3d-7.7829218!4d110.3670757!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fg%2F122zk22q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
         <is>
           <t>28 menit lalu</t>
         </is>
@@ -7177,25 +6998,24 @@
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F176" t="n">
-        <v>4.5</v>
+        <v>-7.795561</v>
       </c>
       <c r="G176" t="n">
-        <v>-7.795561</v>
-      </c>
-      <c r="H176" t="n">
         <v>110.36121</v>
       </c>
-      <c r="I176" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr">
+      <c r="H176" t="b">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Candi+Donotirto/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a58274e35ee89:0x353853e5497dcb7c!8m2!3d-7.7955613!4d110.3612095!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlBOV0pmUnpSblJSQULgAQD6AQQIABBB!16s%2Fg%2F11bx55_5pt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7218,25 +7038,24 @@
           <t>(0274) 5011201</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr"/>
+      <c r="E177" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F177" t="n">
-        <v>4.6</v>
+        <v>-7.77533</v>
       </c>
       <c r="G177" t="n">
-        <v>-7.77533</v>
-      </c>
-      <c r="H177" t="n">
         <v>110.380453</v>
       </c>
-      <c r="I177" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr">
+      <c r="H177" t="b">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Taman+Kearifan+UGM/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a59ca8407bcc9:0xe70fabcb9b44a5ac!8m2!3d-7.7753299!4d110.3804534!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQRwYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5TY2t4aVEzTlJSUkFC4AEA-gEECAAQMg!16s%2Fg%2F11c2nxnz95?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7255,25 +7074,24 @@
           <t>0856-4383-4442</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr"/>
+      <c r="E178" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F178" t="n">
-        <v>4.8</v>
+        <v>-7.822909</v>
       </c>
       <c r="G178" t="n">
-        <v>-7.822909</v>
-      </c>
-      <c r="H178" t="n">
         <v>110.375689</v>
       </c>
-      <c r="I178" t="b">
-        <v>0</v>
+      <c r="H178" t="b">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Desa+Wisata+Sungai+Code+Jogja+Kota/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57a8934200db:0xb78e33e22bb6ee86!8m2!3d-7.8229089!4d110.3756894!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnhkVGh5TUVaUkVBReABAPoBBAgAEBM!16s%2Fg%2F11h2gwpb96?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J178" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Desa+Wisata+Sungai+Code+Jogja+Kota/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57a8934200db:0xb78e33e22bb6ee86!8m2!3d-7.8229089!4d110.3756894!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnhkVGh5TUVaUkVBReABAPoBBAgAEBM!16s%2Fg%2F11h2gwpb96?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K178" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -7300,25 +7118,24 @@
           <t>(0274) 373861</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr"/>
+      <c r="E179" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F179" t="n">
-        <v>4.5</v>
+        <v>-7.804134</v>
       </c>
       <c r="G179" t="n">
-        <v>-7.804134</v>
-      </c>
-      <c r="H179" t="n">
         <v>110.397988</v>
       </c>
-      <c r="I179" t="b">
-        <v>0</v>
+      <c r="H179" t="b">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gembira+Loka+Zoo/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57196b21a901:0x77e3f6112577fb0f!8m2!3d-7.8041337!4d110.3979883!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQN6b2_gAQA!16s%2Fm%2F0130d2nz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J179" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gembira+Loka+Zoo/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57196b21a901:0x77e3f6112577fb0f!8m2!3d-7.8041337!4d110.3979883!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQN6b2_gAQA!16s%2Fm%2F0130d2nz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K179" t="inlineStr">
         <is>
           <t>3 jam lalu</t>
         </is>
@@ -7338,22 +7155,21 @@
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>-7.801367</v>
+      </c>
       <c r="G180" t="n">
-        <v>-7.801367</v>
-      </c>
-      <c r="H180" t="n">
         <v>110.364757</v>
       </c>
-      <c r="I180" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr">
+      <c r="H180" t="b">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Indonesian/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5700737359a3:0x7d7044d622b21e26!8m2!3d-7.8013672!4d110.3647568!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11wxvnc4sw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7368,25 +7184,24 @@
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
+      <c r="E181" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F181" t="n">
-        <v>4.3</v>
+        <v>-7.803843</v>
       </c>
       <c r="G181" t="n">
-        <v>-7.803843</v>
-      </c>
-      <c r="H181" t="n">
         <v>110.365516</v>
       </c>
-      <c r="I181" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr">
+      <c r="H181" t="b">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%84%EA%A6%AD%EA%A6%B8%EA%A6%A4%EA%A7%80%EA%A6%84%EA%A6%AD%EA%A6%B8%EA%A6%A4%EA%A7%80%EA%A6%88%EA%A6%A0%EA%A6%AB+(+Alun+Alun+Utara)/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57de142886e3:0x2eaf0571db03c9b9!8m2!3d-7.8038427!4d110.3655155!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXhjWEJoU2xoQkVBReABAPoBBAgAEDo!16s%2Fg%2F11khd_bgg_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7409,25 +7224,24 @@
           <t>(0274) 373861</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr"/>
+      <c r="E182" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F182" t="n">
-        <v>4.5</v>
+        <v>-7.805374</v>
       </c>
       <c r="G182" t="n">
-        <v>-7.805374</v>
-      </c>
-      <c r="H182" t="n">
         <v>110.39806</v>
       </c>
-      <c r="I182" t="b">
-        <v>0</v>
+      <c r="H182" t="b">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Museum+Gembira+Loka+Zoo/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5768983bbcc9:0xd2ebc6bb1d5255c7!8m2!3d-7.8053736!4d110.3980597!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQZtdXNldW2aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlhiVGxFVmpsM1JSQULgAQD6AQQIABAy!16s%2Fg%2F11dz2t650b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J182" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Museum+Gembira+Loka+Zoo/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5768983bbcc9:0xd2ebc6bb1d5255c7!8m2!3d-7.8053736!4d110.3980597!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQZtdXNldW2aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlhiVGxFVmpsM1JSQULgAQD6AQQIABAy!16s%2Fg%2F11dz2t650b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K182" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -7454,25 +7268,24 @@
           <t>(0274) 388086</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F183" t="n">
-        <v>4.4</v>
+        <v>-7.816705</v>
       </c>
       <c r="G183" t="n">
-        <v>-7.816705</v>
-      </c>
-      <c r="H183" t="n">
         <v>110.386289</v>
       </c>
-      <c r="I183" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr">
+      <c r="H183" t="b">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/XT+Square/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a570cc4bbd643:0x4e21846082fd8daa!8m2!3d-7.8167055!4d110.3862889!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ9idXNpbmVzc19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjFjSE0yVFhCblJSQULgAQD6AQQIABBH!16s%2Fg%2F1hm60r9m2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7487,25 +7300,24 @@
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F184" t="n">
-        <v>4.7</v>
+        <v>-7.831221</v>
       </c>
       <c r="G184" t="n">
-        <v>-7.831221</v>
-      </c>
-      <c r="H184" t="n">
         <v>110.394138</v>
       </c>
-      <c r="I184" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr">
+      <c r="H184" t="b">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bendhung+Lepen/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a575796e0e4d5:0x65bc00150955aeab!8m2!3d-7.8312214!4d110.3941377!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmthMkpVUlRkQlJSQULgAQD6AQQIABBJ!16s%2Fg%2F11fks916ng?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7528,25 +7340,24 @@
           <t>(0274) 373622</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr"/>
+      <c r="E185" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F185" t="n">
-        <v>4.8</v>
+        <v>-7.803907</v>
       </c>
       <c r="G185" t="n">
-        <v>-7.803907</v>
-      </c>
-      <c r="H185" t="n">
         <v>110.362643</v>
       </c>
-      <c r="I185" t="b">
-        <v>0</v>
+      <c r="H185" t="b">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Gedhe+Kauman+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a578e5026fa8d:0xdc2b00d17c73aa18!8m2!3d-7.8039072!4d110.3626429!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQZtb3NxdWXgAQA!16s%2Fg%2F11jgf7_l6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J185" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Gedhe+Kauman+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a578e5026fa8d:0xdc2b00d17c73aa18!8m2!3d-7.8039072!4d110.3626429!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQZtb3NxdWXgAQA!16s%2Fg%2F11jgf7_l6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K185" t="inlineStr">
         <is>
           <t>11 jam lalu</t>
         </is>
@@ -7573,25 +7384,24 @@
           <t>0882-3370-1338</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr"/>
+      <c r="E186" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F186" t="n">
-        <v>4.7</v>
+        <v>-7.762814</v>
       </c>
       <c r="G186" t="n">
-        <v>-7.762814</v>
-      </c>
-      <c r="H186" t="n">
         <v>110.116163</v>
       </c>
-      <c r="I186" t="b">
-        <v>0</v>
+      <c r="H186" t="b">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ekowisata+Sungai+Mudal/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aee4a6fe974b7:0xc8f1e183fc8e2531!8m2!3d-7.7628136!4d110.1161626!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b7wn6mry?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J186" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ekowisata+Sungai+Mudal/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aee4a6fe974b7:0xc8f1e183fc8e2531!8m2!3d-7.7628136!4d110.1161626!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b7wn6mry?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K186" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -7618,25 +7428,24 @@
           <t>0823-2296-6355</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F187" t="n">
-        <v>4.5</v>
+        <v>-7.799943</v>
       </c>
       <c r="G187" t="n">
-        <v>-7.799943</v>
-      </c>
-      <c r="H187" t="n">
         <v>110.123771</v>
       </c>
-      <c r="I187" t="b">
-        <v>0</v>
+      <c r="H187" t="b">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bukit+Wisata+Pulepayung/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aef0ce7442ce9:0x9832e17670a1167e!8m2!3d-7.7999428!4d110.1237712!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11dfknb5kt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J187" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bukit+Wisata+Pulepayung/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aef0ce7442ce9:0x9832e17670a1167e!8m2!3d-7.7999428!4d110.1237712!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11dfknb5kt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -7655,25 +7464,24 @@
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
+      <c r="E188" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F188" t="n">
-        <v>4.4</v>
+        <v>-7.80032</v>
       </c>
       <c r="G188" t="n">
-        <v>-7.80032</v>
-      </c>
-      <c r="H188" t="n">
         <v>110.128122</v>
       </c>
-      <c r="I188" t="b">
-        <v>0</v>
+      <c r="H188" t="b">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Canting+Mas+Puncak+Dipowono/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aeff802bfc345:0x577753a527aa9ef8!8m2!3d-7.80032!4d110.128122!15sChJXaXNhdGEgS3Vsb24gUHJvZ2-SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F1tgqfvjy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J188" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Canting+Mas+Puncak+Dipowono/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aeff802bfc345:0x577753a527aa9ef8!8m2!3d-7.80032!4d110.128122!15sChJXaXNhdGEgS3Vsb24gUHJvZ2-SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F1tgqfvjy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -7700,25 +7508,24 @@
           <t>0811-2650-250</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F189" t="n">
-        <v>4.4</v>
+        <v>-7.807422</v>
       </c>
       <c r="G189" t="n">
-        <v>-7.807422</v>
-      </c>
-      <c r="H189" t="n">
         <v>110.129268</v>
       </c>
-      <c r="I189" t="b">
-        <v>0</v>
+      <c r="H189" t="b">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisata+Alam+Kalibiru/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aeff7861e0b91:0x5604e4ced3f4227e!8m2!3d-7.8074219!4d110.1292682!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b7jz25fr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J189" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisata+Alam+Kalibiru/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aeff7861e0b91:0x5604e4ced3f4227e!8m2!3d-7.8074219!4d110.1292682!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b7jz25fr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -7741,25 +7548,24 @@
           <t>0853-2888-4338</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F190" t="n">
-        <v>4.1</v>
+        <v>-7.777805</v>
       </c>
       <c r="G190" t="n">
-        <v>-7.777805</v>
-      </c>
-      <c r="H190" t="n">
         <v>110.163457</v>
       </c>
-      <c r="I190" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr">
+      <c r="H190" t="b">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Embung+Kleco/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7af3600ec7617f:0xc6e073199b9579a1!8m2!3d-7.7778054!4d110.1634566!15sChJXaXNhdGEgS3Vsb24gUHJvZ2-SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11b708k5lt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7778,25 +7584,24 @@
           <t>0852-9212-2131</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr"/>
+      <c r="E191" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F191" t="n">
-        <v>4.7</v>
+        <v>-7.766425</v>
       </c>
       <c r="G191" t="n">
-        <v>-7.766425</v>
-      </c>
-      <c r="H191" t="n">
         <v>110.117562</v>
       </c>
-      <c r="I191" t="b">
-        <v>0</v>
+      <c r="H191" t="b">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Air+Terjun+Kembang+Soka/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7af1e00cc25677:0xfc4eccf8f2a9af7a!8m2!3d-7.7664251!4d110.1175615!15sChJXaXNhdGEgS3Vsb24gUHJvZ2-SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11cn7qyq53?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J191" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Air+Terjun+Kembang+Soka/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7af1e00cc25677:0xfc4eccf8f2a9af7a!8m2!3d-7.7664251!4d110.1175615!15sChJXaXNhdGEgS3Vsb24gUHJvZ2-SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11cn7qyq53?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K191" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -7819,25 +7624,24 @@
           <t>0851-5627-6948</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F192" t="n">
-        <v>4.6</v>
+        <v>-7.658313</v>
       </c>
       <c r="G192" t="n">
-        <v>-7.658313</v>
-      </c>
-      <c r="H192" t="n">
         <v>110.148813</v>
       </c>
-      <c r="I192" t="b">
-        <v>0</v>
+      <c r="H192" t="b">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puncak+Widosari/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7af2a39a0f77ef:0xf43f0e20f44edb20!8m2!3d-7.6583125!4d110.1488125!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b778f86j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J192" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puncak+Widosari/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7af2a39a0f77ef:0xf43f0e20f44edb20!8m2!3d-7.6583125!4d110.1488125!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b778f86j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -7860,25 +7664,24 @@
           <t>0812-2920-9313</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr"/>
+      <c r="E193" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F193" t="n">
-        <v>4.5</v>
+        <v>-7.769987</v>
       </c>
       <c r="G193" t="n">
-        <v>-7.769987</v>
-      </c>
-      <c r="H193" t="n">
         <v>110.121071</v>
       </c>
-      <c r="I193" t="b">
-        <v>0</v>
+      <c r="H193" t="b">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KEDUNG+PEDUT/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aefcb98e324b9:0x417b7b093fdf367f!8m2!3d-7.7699875!4d110.1210707!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11clgcfjzw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J193" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KEDUNG+PEDUT/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aefcb98e324b9:0x417b7b093fdf367f!8m2!3d-7.7699875!4d110.1210707!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11clgcfjzw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
         <is>
           <t>42 menit lalu</t>
         </is>
@@ -7897,25 +7700,24 @@
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F194" t="n">
-        <v>4.5</v>
+        <v>-7.858781</v>
       </c>
       <c r="G194" t="n">
-        <v>-7.858781</v>
-      </c>
-      <c r="H194" t="n">
         <v>110.159277</v>
       </c>
-      <c r="I194" t="b">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr">
+      <c r="H194" t="b">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Taman+Kota+Wates/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7afb3cc533ced3:0x229598c21cc2b05!8m2!3d-7.8587807!4d110.1592767!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxZDFwWU1EbEJSUkFC4AEA-gEECAAQRg!16s%2Fg%2F11f10m1_ln?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -7930,25 +7732,24 @@
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="n">
+        <v>4</v>
+      </c>
       <c r="F195" t="n">
-        <v>4</v>
+        <v>-7.740285</v>
       </c>
       <c r="G195" t="n">
-        <v>-7.740285</v>
-      </c>
-      <c r="H195" t="n">
         <v>110.145584</v>
       </c>
-      <c r="I195" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr">
+      <c r="H195" t="b">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Curug+Setawing/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7af1d63f8bb1b3:0x7f7a2b5cc9ed6c32!8m2!3d-7.7402852!4d110.1455835!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5DWDNOWFYxQm5FQUXgAQD6AQUI_gEQHQ!16s%2Fg%2F11s48r83p_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -7967,25 +7768,24 @@
           <t>0857-4300-7723</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F196" t="n">
-        <v>4.4</v>
+        <v>-7.850688</v>
       </c>
       <c r="G196" t="n">
-        <v>-7.850688</v>
-      </c>
-      <c r="H196" t="n">
         <v>110.231333</v>
       </c>
-      <c r="I196" t="b">
-        <v>0</v>
+      <c r="H196" t="b">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Desa+Wisata+Salamrejo/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7afbd71f44ff5b:0x14adffcfcb22d6f!8m2!3d-7.8506884!4d110.2313331!15sChJXaXNhdGEgS3Vsb24gUHJvZ2-SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11hckf7kpy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J196" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Desa+Wisata+Salamrejo/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7afbd71f44ff5b:0x14adffcfcb22d6f!8m2!3d-7.8506884!4d110.2313331!15sChJXaXNhdGEgS3Vsb24gUHJvZ2-SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11hckf7kpy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K196" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -8004,25 +7804,24 @@
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F197" t="n">
-        <v>4.6</v>
+        <v>-7.747245</v>
       </c>
       <c r="G197" t="n">
-        <v>-7.747245</v>
-      </c>
-      <c r="H197" t="n">
         <v>110.205995</v>
       </c>
-      <c r="I197" t="b">
-        <v>0</v>
+      <c r="H197" t="b">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pronosutan+View/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7af11401b1eb09:0x3009d7efec6d3ad3!8m2!3d-7.7472446!4d110.2059948!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgEQYm90YW5pY2FsX2dhcmRlbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2RITXphbVJuRUFF4AEA-gEECAAQQg!16s%2Fg%2F11g9qgrx0q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J197" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pronosutan+View/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7af11401b1eb09:0x3009d7efec6d3ad3!8m2!3d-7.7472446!4d110.2059948!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgEQYm90YW5pY2FsX2dhcmRlbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2RITXphbVJuRUFF4AEA-gEECAAQQg!16s%2Fg%2F11g9qgrx0q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K197" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -8045,25 +7844,24 @@
           <t>0852-3348-6269</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr"/>
+      <c r="E198" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F198" t="n">
-        <v>4.5</v>
+        <v>-7.772227</v>
       </c>
       <c r="G198" t="n">
-        <v>-7.772227</v>
-      </c>
-      <c r="H198" t="n">
         <v>110.121244</v>
       </c>
-      <c r="I198" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr">
+      <c r="H198" t="b">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bukit+Sebantung+(Kedung+Pedut+Jilid+II)/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aefd7b0d4a08d:0xb87392729bb31329!8m2!3d-7.772227!4d110.121244!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5IYVVwdVoxbEJFQUXgAQD6AQQIexA8!16s%2Fg%2F11j1dldp68?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8079,22 +7877,21 @@
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
+      <c r="F199" t="n">
+        <v>-7.824177</v>
+      </c>
       <c r="G199" t="n">
-        <v>-7.824177</v>
-      </c>
-      <c r="H199" t="n">
         <v>110.110479</v>
       </c>
-      <c r="I199" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr">
+      <c r="H199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Hargowilis/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7ae56173be32c3:0x72c3e0d4658f6663!8m2!3d-7.8241769!4d110.1104789!15sChJXaXNhdGEgS3Vsb24gUHJvZ2-SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11tcl8jzgz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8109,25 +7906,24 @@
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr"/>
+      <c r="E200" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F200" t="n">
-        <v>4.5</v>
+        <v>-7.865523</v>
       </c>
       <c r="G200" t="n">
-        <v>-7.865523</v>
-      </c>
-      <c r="H200" t="n">
         <v>110.203555</v>
       </c>
-      <c r="I200" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr">
+      <c r="H200" t="b">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jangkang+View+Sidowayah/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7afb55349ae29f:0x10745b0ab18230a4!8m2!3d-7.8655231!4d110.2035546!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgELc2NlbmljX3Nwb3SaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXlPR1JJY1ZSUkVBReABAPoBBAgAECU!16s%2Fg%2F11h1ml0yc3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8142,25 +7938,24 @@
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr"/>
+      <c r="E201" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F201" t="n">
-        <v>4.5</v>
+        <v>-7.807055</v>
       </c>
       <c r="G201" t="n">
-        <v>-7.807055</v>
-      </c>
-      <c r="H201" t="n">
         <v>110.177803</v>
       </c>
-      <c r="I201" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr">
+      <c r="H201" t="b">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Curug+Mbendo/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7afb111e85e107:0xb3e589e463d560ef!8m2!3d-7.8070545!4d110.1778028!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI0TjFCNlNVTm5FQUXgAQD6AQQIABAP!16s%2Fg%2F11fjx7k6cy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8175,25 +7970,24 @@
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr"/>
+      <c r="E202" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F202" t="n">
-        <v>4.5</v>
+        <v>-7.737982</v>
       </c>
       <c r="G202" t="n">
-        <v>-7.737982</v>
-      </c>
-      <c r="H202" t="n">
         <v>110.385043</v>
       </c>
-      <c r="I202" t="b">
-        <v>0</v>
+      <c r="H202" t="b">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Green+Kayen/@-7.7379817,110.2408477,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a59e84f8e1e81:0x892933b7e11930d8!8m2!3d-7.7379817!4d110.3850433!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjRjelpYU214QlJSQULgAQD6AQQIABAp!16s%2Fg%2F11n2h0nznl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J202" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Green+Kayen/@-7.7379817,110.2408477,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a59e84f8e1e81:0x892933b7e11930d8!8m2!3d-7.7379817!4d110.3850433!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjRjelpYU214QlJSQULgAQD6AQQIABAp!16s%2Fg%2F11n2h0nznl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K202" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -8212,25 +8006,24 @@
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr"/>
+      <c r="E203" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F203" t="n">
-        <v>4.7</v>
+        <v>-7.743062</v>
       </c>
       <c r="G203" t="n">
-        <v>-7.743062</v>
-      </c>
-      <c r="H203" t="n">
         <v>110.329212</v>
       </c>
-      <c r="I203" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="H203" t="b">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Fauna+Ketingan/@-7.7379817,110.2408477,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7af743dfe424ab:0xcf7e6dfe1023fcf4!8m2!3d-7.743062!4d110.3292115!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVkMjgyY1RKQlJSQULgAQD6AQUIpwMQRg!16s%2Fg%2F11mpyq55lh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8253,25 +8046,24 @@
           <t>(0274) 496401</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr"/>
+      <c r="E204" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F204" t="n">
-        <v>4.7</v>
+        <v>-7.752021</v>
       </c>
       <c r="G204" t="n">
-        <v>-7.752021</v>
-      </c>
-      <c r="H204" t="n">
         <v>110.491467</v>
       </c>
-      <c r="I204" t="b">
-        <v>0</v>
+      <c r="H204" t="b">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Candi+Prambanan/@-7.7520206,110.3472718,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5ae3dbd859d1:0x19e7a03b25955a2d!8m2!3d-7.7520206!4d110.4914674!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SAQxoaW5kdV90ZW1wbGXgAQA!16zL20vMDJzMF80?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J204" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Candi+Prambanan/@-7.7520206,110.3472718,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5ae3dbd859d1:0x19e7a03b25955a2d!8m2!3d-7.7520206!4d110.4914674!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SAQxoaW5kdV90ZW1wbGXgAQA!16zL20vMDJzMF80?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K204" t="inlineStr">
         <is>
           <t>15 menit lalu</t>
         </is>
@@ -8294,25 +8086,24 @@
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr"/>
+      <c r="E205" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F205" t="n">
-        <v>4.3</v>
+        <v>-7.702833</v>
       </c>
       <c r="G205" t="n">
-        <v>-7.702833</v>
-      </c>
-      <c r="H205" t="n">
         <v>110.44911</v>
       </c>
-      <c r="I205" t="b">
-        <v>0</v>
+      <c r="H205" t="b">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Blue+Lagoon+Jogja/@-7.7520206,110.3472718,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5c75eba9da15:0xd4d6063b3b163462!8m2!3d-7.7028328!4d110.4491103!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11b6vhjqrb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J205" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Blue+Lagoon+Jogja/@-7.7520206,110.3472718,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5c75eba9da15:0xd4d6063b3b163462!8m2!3d-7.7028328!4d110.4491103!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11b6vhjqrb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K205" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -8339,25 +8130,24 @@
           <t>0812-1278-7778</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr"/>
+      <c r="E206" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F206" t="n">
-        <v>4.3</v>
+        <v>-7.739957</v>
       </c>
       <c r="G206" t="n">
-        <v>-7.739957</v>
-      </c>
-      <c r="H206" t="n">
         <v>110.302408</v>
       </c>
-      <c r="I206" t="b">
-        <v>0</v>
+      <c r="H206" t="b">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Desa+Wisata+Grogol/@-7.7399571,110.1582122,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7af667b2b6e245:0xb4395f84bab885f2!8m2!3d-7.7399571!4d110.3024078!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARBuYXRpb25hbF9yZXNlcnZlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5VTVhBMllXOUJSUkFC4AEA-gEECAAQNw!16s%2Fg%2F1pzszhb60?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J206" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Desa+Wisata+Grogol/@-7.7399571,110.1582122,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7af667b2b6e245:0xb4395f84bab885f2!8m2!3d-7.7399571!4d110.3024078!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARBuYXRpb25hbF9yZXNlcnZlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5VTVhBMllXOUJSUkFC4AEA-gEECAAQNw!16s%2Fg%2F1pzszhb60?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K206" t="inlineStr">
         <is>
           <t>22 jam lalu</t>
         </is>
@@ -8380,25 +8170,24 @@
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
+      <c r="E207" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F207" t="n">
-        <v>4.3</v>
+        <v>-7.810373</v>
       </c>
       <c r="G207" t="n">
-        <v>-7.810373</v>
-      </c>
-      <c r="H207" t="n">
         <v>110.468686</v>
       </c>
-      <c r="I207" t="b">
-        <v>0</v>
+      <c r="H207" t="b">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Candi+Abang/@-7.8103728,110.3244904,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a508b5e9cb8e5:0xe4ec094fa5ffe7d9!8m2!3d-7.8103728!4d110.468686!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fg%2F1226mczs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J207" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Candi+Abang/@-7.8103728,110.3244904,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a508b5e9cb8e5:0xe4ec094fa5ffe7d9!8m2!3d-7.8103728!4d110.468686!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fg%2F1226mczs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K207" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -8417,25 +8206,24 @@
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
+      <c r="E208" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F208" t="n">
-        <v>4.4</v>
+        <v>-7.704665</v>
       </c>
       <c r="G208" t="n">
-        <v>-7.704665</v>
-      </c>
-      <c r="H208" t="n">
         <v>110.379933</v>
       </c>
-      <c r="I208" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr">
+      <c r="H208" t="b">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Tanjung/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5efa540d4767:0x1e414eda10e5df99!8m2!3d-7.704665!4d110.379933!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmlOWFpsY0ZKbkVBReABAPoBBAgAEEg!16s%2Fg%2F11bc7qxtyk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -8458,25 +8246,24 @@
           <t>0881-0100-89990</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr"/>
+      <c r="E209" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F209" t="n">
-        <v>4.2</v>
+        <v>-7.768503</v>
       </c>
       <c r="G209" t="n">
-        <v>-7.768503</v>
-      </c>
-      <c r="H209" t="n">
         <v>110.355459</v>
       </c>
-      <c r="I209" t="b">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr">
+      <c r="H209" t="b">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sindu+Kusuma+Edupark+(SKE)/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a584281200f8b:0xeed0884f4b2272a8!8m2!3d-7.7685035!4d110.3554593!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SAQ5hbXVzZW1lbnRfcGFya-ABAA!16s%2Fg%2F11b6vc54pq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8499,25 +8286,24 @@
           <t>(0274) 5011201</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr"/>
+      <c r="E210" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F210" t="n">
-        <v>4.6</v>
+        <v>-7.77533</v>
       </c>
       <c r="G210" t="n">
-        <v>-7.77533</v>
-      </c>
-      <c r="H210" t="n">
         <v>110.380453</v>
       </c>
-      <c r="I210" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr">
+      <c r="H210" t="b">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Taman+Kearifan+UGM/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a59ca8407bcc9:0xe70fabcb9b44a5ac!8m2!3d-7.7753299!4d110.3804534!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SAQRwYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5TY2t4aVEzTlJSUkFC4AEA-gEECAAQMg!16s%2Fg%2F11c2nxnz95?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8532,25 +8318,24 @@
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
+      <c r="E211" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F211" t="n">
-        <v>4.4</v>
+        <v>-7.756227</v>
       </c>
       <c r="G211" t="n">
-        <v>-7.756227</v>
-      </c>
-      <c r="H211" t="n">
         <v>110.415013</v>
       </c>
-      <c r="I211" t="b">
-        <v>0</v>
+      <c r="H211" t="b">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Embung+Tambakboyo/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a598356dbaf65:0xd1c1d58cb1d42109!8m2!3d-7.756227!4d110.4150131!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SAQRwYXJr4AEA!16s%2Fg%2F11b5v4m_zd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J211" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Embung+Tambakboyo/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a598356dbaf65:0xd1c1d58cb1d42109!8m2!3d-7.756227!4d110.4150131!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SAQRwYXJr4AEA!16s%2Fg%2F11b5v4m_zd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K211" t="inlineStr">
         <is>
           <t>13 jam lalu</t>
         </is>
@@ -8569,25 +8354,24 @@
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
-      <c r="E212" t="inlineStr"/>
+      <c r="E212" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F212" t="n">
-        <v>4.5</v>
+        <v>-7.751465</v>
       </c>
       <c r="G212" t="n">
-        <v>-7.751465</v>
-      </c>
-      <c r="H212" t="n">
         <v>110.416289</v>
       </c>
-      <c r="I212" t="b">
-        <v>0</v>
+      <c r="H212" t="b">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Candi+Gebang/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a59786eea3b2f:0x28b240601a68c6ff!8m2!3d-7.7514654!4d110.4162887!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEgQ2hSRFNVaE5NRzluUzBWSlEwRm5TVU15YkZCT1FSQULgAQD6AQQIFxA4!16s%2Fm%2F0crcsdc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J212" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Candi+Gebang/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a59786eea3b2f:0x28b240601a68c6ff!8m2!3d-7.7514654!4d110.4162887!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEgQ2hSRFNVaE5NRzluUzBWSlEwRm5TVU15YkZCT1FSQULgAQD6AQQIFxA4!16s%2Fm%2F0crcsdc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K212" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -8606,25 +8390,24 @@
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr"/>
+      <c r="E213" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F213" t="n">
-        <v>3.9</v>
+        <v>-7.743895</v>
       </c>
       <c r="G213" t="n">
-        <v>-7.743895</v>
-      </c>
-      <c r="H213" t="n">
         <v>110.331362</v>
       </c>
-      <c r="I213" t="b">
-        <v>0</v>
+      <c r="H213" t="b">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Embung+Ketingan/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a589d799a3e27:0xc5b6ee322dbf3041!8m2!3d-7.7438954!4d110.3313615!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTJObU5MVGtOUkVBReABAPoBBAgAEEc!16s%2Fg%2F11clyt6gv2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J213" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Embung+Ketingan/@-7.704665,110.2357374,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a589d799a3e27:0xc5b6ee322dbf3041!8m2!3d-7.7438954!4d110.3313615!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTJObU5MVGtOUkVBReABAPoBBAgAEEc!16s%2Fg%2F11clyt6gv2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K213" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -8647,25 +8430,24 @@
           <t>0858-2664-4612</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr"/>
+      <c r="E214" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F214" t="n">
-        <v>4.1</v>
+        <v>-7.817992</v>
       </c>
       <c r="G214" t="n">
-        <v>-7.817992</v>
-      </c>
-      <c r="H214" t="n">
         <v>110.511841</v>
       </c>
-      <c r="I214" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr">
+      <c r="H214" t="b">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bukit+Teletubbies/@-7.817992,110.3676458,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5025125dea7d:0x18dabce7ce0729c4!8m2!3d-7.817992!4d110.5118414!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11gy2jf508?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -8684,25 +8466,24 @@
           <t>0818-0266-6155</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr"/>
+      <c r="E215" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F215" t="n">
-        <v>4.5</v>
+        <v>-7.75148</v>
       </c>
       <c r="G215" t="n">
-        <v>-7.75148</v>
-      </c>
-      <c r="H215" t="n">
         <v>110.335276</v>
       </c>
-      <c r="I215" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr">
+      <c r="H215" t="b">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dewi+Rawe/@-7.7514803,110.1910803,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5948c32a00f1:0x893a134c3d2923db!8m2!3d-7.7514803!4d110.3352759!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjViMlJFYzBWQkVBReABAPoBBAgAEEc!16s%2Fg%2F11h5s2r2gd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -8717,25 +8498,24 @@
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
+      <c r="E216" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F216" t="n">
-        <v>4.3</v>
+        <v>-7.604165</v>
       </c>
       <c r="G216" t="n">
-        <v>-7.604165</v>
-      </c>
-      <c r="H216" t="n">
         <v>110.451004</v>
       </c>
-      <c r="I216" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr">
+      <c r="H216" t="b">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/The+Lost+World+Castle/@-7.6041648,110.3068086,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5d9bed435109:0x284f5fe8b2b683c9!8m2!3d-7.6041648!4d110.4510042!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11gy24lssq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -8758,25 +8538,24 @@
           <t>(0274) 496510</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr"/>
+      <c r="E217" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F217" t="n">
-        <v>4.7</v>
+        <v>-7.770542</v>
       </c>
       <c r="G217" t="n">
-        <v>-7.770542</v>
-      </c>
-      <c r="H217" t="n">
         <v>110.489416</v>
       </c>
-      <c r="I217" t="b">
-        <v>0</v>
+      <c r="H217" t="b">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Keraton+Ratu+Boko/@-7.7705416,110.3452202,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5a92d354fe45:0x153f44f14476f95b!8m2!3d-7.7705416!4d110.4894158!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fm%2F0264bpk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J217" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Keraton+Ratu+Boko/@-7.7705416,110.3452202,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5a92d354fe45:0x153f44f14476f95b!8m2!3d-7.7705416!4d110.4894158!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fm%2F0264bpk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K217" t="inlineStr">
         <is>
           <t>13 jam lalu</t>
         </is>
@@ -8799,25 +8578,24 @@
           <t>0812-1582-7899</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr"/>
+      <c r="E218" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F218" t="n">
-        <v>4.8</v>
+        <v>-7.779558</v>
       </c>
       <c r="G218" t="n">
-        <v>-7.779558</v>
-      </c>
-      <c r="H218" t="n">
         <v>110.328174</v>
       </c>
-      <c r="I218" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr">
+      <c r="H218" t="b">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+%22Bedog+Ilir%22/@-7.7795584,110.1839787,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7af755ec6c4e07:0x8858c770241fd8e!8m2!3d-7.7795584!4d110.3281743!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmlNM0ZNU1RoM1JSQULgAQD6AQQIEhA1!16s%2Fg%2F11k609xqqp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -8832,25 +8610,24 @@
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
+      <c r="E219" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F219" t="n">
-        <v>4.6</v>
+        <v>-7.762455</v>
       </c>
       <c r="G219" t="n">
-        <v>-7.762455</v>
-      </c>
-      <c r="H219" t="n">
         <v>110.447045</v>
       </c>
-      <c r="I219" t="b">
-        <v>0</v>
+      <c r="H219" t="b">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Candi+Sambisari/@-7.7624548,110.302849,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5a39b544a4ab:0xd8f5c2d79ac124f3!8m2!3d-7.7624548!4d110.4470446!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fm%2F064kb4b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J219" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Candi+Sambisari/@-7.7624548,110.302849,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5a39b544a4ab:0xd8f5c2d79ac124f3!8m2!3d-7.7624548!4d110.4470446!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fm%2F064kb4b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K219" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -8869,25 +8646,24 @@
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr"/>
+      <c r="E220" t="n">
+        <v>4</v>
+      </c>
       <c r="F220" t="n">
-        <v>4</v>
+        <v>-7.747188</v>
       </c>
       <c r="G220" t="n">
-        <v>-7.747188</v>
-      </c>
-      <c r="H220" t="n">
         <v>110.28157</v>
       </c>
-      <c r="I220" t="b">
-        <v>0</v>
+      <c r="H220" t="b">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bukit+Pandawa/@-7.7471878,110.1373745,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7af6f65e71cf5b:0x2051af7c1dc34812!8m2!3d-7.7471878!4d110.2815701!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhNMDlwVDE5QlJSQULgAQD6AQQIABBC!16s%2Fg%2F11g8_2mlfd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J220" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bukit+Pandawa/@-7.7471878,110.1373745,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7af6f65e71cf5b:0x2051af7c1dc34812!8m2!3d-7.7471878!4d110.2815701!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhNMDlwVDE5QlJSQULgAQD6AQQIABBC!16s%2Fg%2F11g8_2mlfd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K220" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -8906,25 +8682,24 @@
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
+      <c r="E221" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F221" t="n">
-        <v>4.5</v>
+        <v>-7.807137</v>
       </c>
       <c r="G221" t="n">
-        <v>-7.807137</v>
-      </c>
-      <c r="H221" t="n">
         <v>110.432389</v>
       </c>
-      <c r="I221" t="b">
-        <v>0</v>
+      <c r="H221" t="b">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Embung+Sendangtirto/@-7.8071372,110.2881937,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5169ce01e2fb:0x3358c3fcbd761a54!8m2!3d-7.8071372!4d110.4323893!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnROelJxVkU5M0VBReABAPoBBQiJAxBF!16s%2Fg%2F11rg22hcb3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J221" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Embung+Sendangtirto/@-7.8071372,110.2881937,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5169ce01e2fb:0x3358c3fcbd761a54!8m2!3d-7.8071372!4d110.4323893!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnROelJxVkU5M0VBReABAPoBBQiJAxBF!16s%2Fg%2F11rg22hcb3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K221" t="inlineStr">
         <is>
           <t>23 jam lalu</t>
         </is>
@@ -8947,25 +8722,24 @@
           <t>0888-2837-133</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr"/>
+      <c r="E222" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F222" t="n">
-        <v>4.8</v>
+        <v>-7.759474</v>
       </c>
       <c r="G222" t="n">
-        <v>-7.759474</v>
-      </c>
-      <c r="H222" t="n">
         <v>110.330832</v>
       </c>
-      <c r="I222" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr">
+      <c r="H222" t="b">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sanggar+pathok+bumi+mlangi/@-7.7594736,110.1866363,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a587f5353f419:0xf80c60c53487c21c!8m2!3d-7.7594736!4d110.3308319!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJibUZUWnpoblJSQULgAQD6AQQIABA8!16s%2Fg%2F11bx1cfyhv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -8984,25 +8758,24 @@
           <t>0858-7776-3680</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr"/>
+      <c r="E223" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F223" t="n">
-        <v>4.2</v>
+        <v>-7.750303</v>
       </c>
       <c r="G223" t="n">
-        <v>-7.750303</v>
-      </c>
-      <c r="H223" t="n">
         <v>110.369499</v>
       </c>
-      <c r="I223" t="b">
-        <v>0</v>
+      <c r="H223" t="b">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Pelangi+Jogja/@-7.7594736,110.1866363,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a58f975c66097:0x99331d342ee5862d!8m2!3d-7.7503027!4d110.3694988!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SAQ5hbXVzZW1lbnRfcGFya-ABAA!16s%2Fg%2F11x7vl1rr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J223" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Pelangi+Jogja/@-7.7594736,110.1866363,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a58f975c66097:0x99331d342ee5862d!8m2!3d-7.7503027!4d110.3694988!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SAQ5hbXVzZW1lbnRfcGFya-ABAA!16s%2Fg%2F11x7vl1rr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K223" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -9029,25 +8802,24 @@
           <t>(0274) 2853556</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr"/>
+      <c r="E224" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F224" t="n">
-        <v>4.5</v>
+        <v>-7.781571</v>
       </c>
       <c r="G224" t="n">
-        <v>-7.781571</v>
-      </c>
-      <c r="H224" t="n">
         <v>110.504583</v>
       </c>
-      <c r="I224" t="b">
-        <v>0</v>
+      <c r="H224" t="b">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Tebing+Breksi/@-7.7815714,110.3603871,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5aa458b4665b:0xa4b0fc6ad0ae38c7!8m2!3d-7.7815714!4d110.5045827!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11fzry0lfb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J224" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Tebing+Breksi/@-7.7815714,110.3603871,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a5aa458b4665b:0xa4b0fc6ad0ae38c7!8m2!3d-7.7815714!4d110.5045827!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11fzry0lfb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K224" t="inlineStr">
         <is>
           <t>6 jam lalu</t>
         </is>
@@ -9074,25 +8846,24 @@
           <t>0857-4312-8969</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr"/>
+      <c r="E225" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F225" t="n">
-        <v>4.5</v>
+        <v>-7.625881</v>
       </c>
       <c r="G225" t="n">
-        <v>-7.625881</v>
-      </c>
-      <c r="H225" t="n">
         <v>110.371698</v>
       </c>
-      <c r="I225" t="b">
-        <v>0</v>
+      <c r="H225" t="b">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Desa+Wisata+Pulesari/@-7.6258806,110.2275024,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a607be3e2fd29:0x1bf37c8ecf4f712d!8m2!3d-7.6258806!4d110.371698!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11b6zwg5ct?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J225" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Desa+Wisata+Pulesari/@-7.6258806,110.2275024,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a607be3e2fd29:0x1bf37c8ecf4f712d!8m2!3d-7.6258806!4d110.371698!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11b6zwg5ct?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K225" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -9111,25 +8882,24 @@
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
+      <c r="E226" t="n">
+        <v>4</v>
+      </c>
       <c r="F226" t="n">
-        <v>4</v>
+        <v>-7.813807</v>
       </c>
       <c r="G226" t="n">
-        <v>-7.813807</v>
-      </c>
-      <c r="H226" t="n">
         <v>110.503432</v>
       </c>
-      <c r="I226" t="b">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr">
+      <c r="H226" t="b">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+New+Nglepen/@-7.8138068,110.3592361,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a50664fd7b7f5:0x7f92cc1801a80020!8m2!3d-7.8138068!4d110.5034317!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmxNbkJEWHpkblJSQULgAQD6AQQIABAR!16s%2Fg%2F11bc7szyp5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9144,25 +8914,24 @@
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
+      <c r="E227" t="n">
+        <v>4</v>
+      </c>
       <c r="F227" t="n">
-        <v>4</v>
+        <v>-7.813807</v>
       </c>
       <c r="G227" t="n">
-        <v>-7.813807</v>
-      </c>
-      <c r="H227" t="n">
         <v>110.503432</v>
       </c>
-      <c r="I227" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr">
+      <c r="H227" t="b">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+New+Nglepen/@-7.8138068,110.3592361,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a50664fd7b7f5:0x7f92cc1801a80020!8m2!3d-7.8138068!4d110.5034317!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmxNbkJEWHpkblJSQULgAQD6AQQIABAR!16s%2Fg%2F11bc7szyp5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
